--- a/HE/W_in_progress/AnalisiCodeT5_225.xlsx
+++ b/HE/W_in_progress/AnalisiCodeT5_225.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{405C3AA1-619D-4AE3-9B4A-B4E3B658511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61396E96-43D8-4C9B-A42C-23F97754E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="830">
   <si>
     <t>IN</t>
   </si>
@@ -426,6 +426,9 @@
     <t>Declare a signal ytemp of type std_logic with a width of 4 bits.</t>
   </si>
   <si>
+    <t>Non ci mette la lunghezza</t>
+  </si>
+  <si>
     <t>Define BTN_state as a signal of type stato and initialize it with NOT_PRESSED</t>
   </si>
   <si>
@@ -534,6 +537,9 @@
     <t>type hex_number is array(POSITIVE range=0 to hex_digit) of hex_digit;</t>
   </si>
   <si>
+    <t>Fa quello che deve fare</t>
+  </si>
+  <si>
     <t>detect the rising edge of clock signal</t>
   </si>
   <si>
@@ -561,6 +567,9 @@
     <t>clock : in std_logic;</t>
   </si>
   <si>
+    <t>Non dichiara il process</t>
+  </si>
+  <si>
     <t>if DSETS is greater than 1, if the integer conversion of signal r.rndcnt is equal to DSETS - 1 then set all elements of thr signal v.rndcnt equal to '0' otherwise set v.rndcnt equal to v.rndcnt + 1</t>
   </si>
   <si>
@@ -624,6 +633,9 @@
     <t>count := c;</t>
   </si>
   <si>
+    <t>Dipende dalle interpretazioni</t>
+  </si>
+  <si>
     <t>tempq0 signal is set to the first element of temp_p signal</t>
   </si>
   <si>
@@ -777,6 +789,9 @@
     <t>clk_tb : in std_logic;</t>
   </si>
   <si>
+    <t>Non fa la generazione periodica</t>
+  </si>
+  <si>
     <t>on the rising edge of clk_in, if reset_n signal is high set temp variable to 25, set start_sig signal to '1', decrement the variable temp by one</t>
   </si>
   <si>
@@ -798,6 +813,9 @@
     <t>prova: process (rst, wait for 100 ns, rst, input) begin if rst = '1' then wait for 100 ns; rst &lt;= '0'; input &lt;= '1'; wait for 100 ns; input &lt;= '0'; wait; end if; end process;</t>
   </si>
   <si>
+    <t>Abbastanza buono</t>
+  </si>
+  <si>
     <t>define a process sck_edge sensitive to clk_i that, on the rising edge of clk_i, if rst_n_i signal is low, set i_sck_cpy signal to '0', otherwise set it to i_scl</t>
   </si>
   <si>
@@ -825,6 +843,9 @@
     <t>y &lt;= (a0 and a1) or (not a0 and not a1);</t>
   </si>
   <si>
+    <t>Non fa quello che ho chiesto</t>
+  </si>
+  <si>
     <t>set count_nxt signal to count_reg when enable signal is '0' otherwise set it to 0 when count_reg is equal to DIV minus 1, otherwise set it to count_reg plus 1</t>
   </si>
   <si>
@@ -918,6 +939,9 @@
     <t>case ra.raddr(2 downto 2) is when '0' =&gt; rdata &lt;= r.hrdata(0); when '1' =&gt; rdata &lt;= r.hrdata(1); when others =&gt; rdata &lt;= r.hrdata(2 downto 0); end case;</t>
   </si>
   <si>
+    <t>Assegnazione sbagliata</t>
+  </si>
+  <si>
     <t>case statement on current_state with the cases idle, primo, secondo, terzo</t>
   </si>
   <si>
@@ -970,6 +994,9 @@
   </si>
   <si>
     <t>library ieee;</t>
+  </si>
+  <si>
+    <t>Non importa anche numeric_std.all</t>
   </si>
   <si>
     <t>define the entity add_round_key with round_key_in, data_in as input 64 std_logic_vector, data_out as output 64 std_logic_vector</t>
@@ -2858,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3990,10 +4017,10 @@
         <v>0.9993141289437586</v>
       </c>
       <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -4016,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -4039,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -4062,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -4085,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -4107,16 +4134,19 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4131,15 +4161,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -4154,15 +4184,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4177,15 +4207,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4200,15 +4230,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4223,15 +4253,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4246,15 +4276,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4266,18 +4296,18 @@
         <v>0.996</v>
       </c>
       <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -4292,15 +4322,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -4315,15 +4345,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4338,15 +4368,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4358,12 +4388,12 @@
         <v>0.99854227405247808</v>
       </c>
       <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
         <v>103</v>
@@ -4384,15 +4414,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4404,18 +4434,18 @@
         <v>0.89955952602518763</v>
       </c>
       <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4427,18 +4457,18 @@
         <v>0.9993141289437586</v>
       </c>
       <c r="G67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4453,15 +4483,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -4473,18 +4503,21 @@
         <v>0.76615384615384619</v>
       </c>
       <c r="G69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4496,18 +4529,18 @@
         <v>0.9563253012048194</v>
       </c>
       <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4519,18 +4552,18 @@
         <v>0.86538461538461542</v>
       </c>
       <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4544,16 +4577,19 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4565,18 +4601,18 @@
         <v>0.74064726236515355</v>
       </c>
       <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4591,15 +4627,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -4614,15 +4650,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4634,18 +4670,18 @@
         <v>0.99962434259954924</v>
       </c>
       <c r="G76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -4660,15 +4696,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4683,15 +4719,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B79" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4706,15 +4742,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4728,16 +4764,19 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4752,15 +4791,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4772,18 +4811,21 @@
         <v>0.62330623306233057</v>
       </c>
       <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -4798,15 +4840,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -4821,15 +4863,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4844,15 +4886,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4867,15 +4909,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4890,15 +4932,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4910,18 +4952,18 @@
         <v>0.92296511627906985</v>
       </c>
       <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4933,18 +4975,18 @@
         <v>0.9990234375</v>
       </c>
       <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -4959,15 +5001,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -4982,15 +5024,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -5005,15 +5047,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5028,15 +5070,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5051,15 +5093,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B95" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -5074,15 +5116,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -5097,15 +5139,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B97" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -5120,15 +5162,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5143,15 +5185,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" t="s">
         <v>228</v>
       </c>
-      <c r="B99" t="s">
-        <v>224</v>
-      </c>
       <c r="C99" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5166,15 +5208,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5189,15 +5231,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -5212,15 +5254,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B102" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C102" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5235,15 +5277,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5258,15 +5300,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5278,18 +5320,18 @@
         <v>0.98858560794044659</v>
       </c>
       <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B105" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -5304,15 +5346,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C106" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5324,18 +5366,18 @@
         <v>0.85059301705756918</v>
       </c>
       <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B107" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5349,16 +5391,19 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C108" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5373,15 +5418,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B109" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -5396,15 +5441,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C110" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5416,18 +5461,21 @@
         <v>0.68757209502672079</v>
       </c>
       <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B111" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5442,15 +5490,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B112" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C112" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -5465,15 +5513,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B113" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C113" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -5488,15 +5536,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -5511,15 +5559,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C115" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -5533,16 +5581,19 @@
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C116" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -5557,15 +5608,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -5580,15 +5631,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B118" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C118" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -5603,15 +5654,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B119" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C119" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5623,18 +5674,18 @@
         <v>0.901770595597438</v>
       </c>
       <c r="G119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B120" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C120" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5649,15 +5700,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C121" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5672,15 +5723,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B122" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C122" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -5692,18 +5743,18 @@
         <v>0.95322094451267159</v>
       </c>
       <c r="G122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C123" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -5715,18 +5766,18 @@
         <v>0.99999218749999996</v>
       </c>
       <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B124" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -5741,15 +5792,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B125" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C125" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -5764,15 +5815,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B126" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C126" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5787,15 +5838,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C127" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -5810,15 +5861,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B128" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C128" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -5833,15 +5884,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B129" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C129" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5855,16 +5906,19 @@
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B130" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -5876,18 +5930,18 @@
         <v>0.95322094451267159</v>
       </c>
       <c r="G130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B131" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C131" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -5902,15 +5956,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B132" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C132" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5922,18 +5976,18 @@
         <v>0.28846153846153838</v>
       </c>
       <c r="G132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B133" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C133" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -5948,15 +6002,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B134" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C134" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -5971,15 +6025,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B135" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C135" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -5994,15 +6048,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B136" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C136" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -6014,18 +6068,18 @@
         <v>0.99999575007012387</v>
       </c>
       <c r="G136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B137" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C137" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6039,16 +6093,19 @@
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B138" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -6060,18 +6117,18 @@
         <v>0.99999157099748814</v>
       </c>
       <c r="G138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B139" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C139" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6086,15 +6143,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B140" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C140" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6106,18 +6163,18 @@
         <v>0.93999556344276847</v>
       </c>
       <c r="G140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B141" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C141" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -6129,18 +6186,18 @@
         <v>0.99999157099748814</v>
       </c>
       <c r="G141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B142" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C142" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -6152,18 +6209,18 @@
         <v>0.99997949895444671</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B143" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C143" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -6175,18 +6232,18 @@
         <v>0.99998608676294631</v>
       </c>
       <c r="G143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B144" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C144" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6198,18 +6255,18 @@
         <v>0.99625971384995282</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B145" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C145" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6221,18 +6278,18 @@
         <v>0.99686788233890689</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B146" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C146" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6244,18 +6301,18 @@
         <v>0.99686788233890689</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B147" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C147" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -6267,18 +6324,18 @@
         <v>0.93670393404802832</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B148" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C148" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6295,13 +6352,13 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B149" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C149" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6313,18 +6370,18 @@
         <v>0.99762962107817732</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B150" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C150" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6336,18 +6393,18 @@
         <v>0.8002179639307565</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B151" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C151" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -6364,13 +6421,13 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B152" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C152" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6387,13 +6444,13 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C153" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6410,13 +6467,13 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B154" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -6433,13 +6490,13 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B155" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C155" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -6456,13 +6513,13 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B156" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C156" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -6479,13 +6536,13 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B157" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C157" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -6502,13 +6559,13 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B158" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C158" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6525,13 +6582,13 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B159" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C159" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6548,13 +6605,13 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B160" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C160" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6571,13 +6628,13 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B161" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C161" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -6594,13 +6651,13 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B162" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C162" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -6617,13 +6674,13 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B163" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C163" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -6640,13 +6697,13 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B164" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C164" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -6663,13 +6720,13 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B165" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C165" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -6686,13 +6743,13 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B166" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C166" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -6709,13 +6766,13 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B167" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C167" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -6732,13 +6789,13 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B168" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C168" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -6755,13 +6812,13 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B169" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C169" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -6778,13 +6835,13 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B170" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C170" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -6801,13 +6858,13 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B171" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C171" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -6824,13 +6881,13 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B172" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C172" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -6847,13 +6904,13 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B173" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C173" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -6870,13 +6927,13 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B174" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C174" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -6893,13 +6950,13 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B175" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C175" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -6916,13 +6973,13 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B176" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C176" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -6939,7 +6996,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B177" t="s">
         <v>109</v>
@@ -6962,13 +7019,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B178" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C178" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -6985,13 +7042,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B179" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C179" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -7008,13 +7065,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B180" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C180" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7031,13 +7088,13 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B181" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C181" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -7054,13 +7111,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B182" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C182" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7077,13 +7134,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B183" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C183" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7100,13 +7157,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B184" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C184" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -7123,13 +7180,13 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B185" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C185" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -7146,13 +7203,13 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B186" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C186" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -7169,13 +7226,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B187" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C187" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7192,13 +7249,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B188" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C188" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7215,13 +7272,13 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B189" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C189" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7238,13 +7295,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B190" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C190" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7261,13 +7318,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B191" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C191" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7284,13 +7341,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B192" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C192" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -7307,13 +7364,13 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B193" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C193" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7330,13 +7387,13 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B194" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C194" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -7353,13 +7410,13 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B195" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="C195" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7376,13 +7433,13 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B196" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="C196" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -7399,13 +7456,13 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B197" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C197" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7422,13 +7479,13 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B198" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C198" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7445,13 +7502,13 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B199" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C199" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7468,13 +7525,13 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B200" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C200" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7491,13 +7548,13 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B201" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C201" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -7514,13 +7571,13 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B202" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C202" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -7537,13 +7594,13 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B203" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C203" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -7560,13 +7617,13 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B204" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C204" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -7583,13 +7640,13 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B205" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C205" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -7606,13 +7663,13 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B206" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C206" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7629,13 +7686,13 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B207" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C207" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -7652,13 +7709,13 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B208" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C208" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -7675,13 +7732,13 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B209" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C209" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -7698,13 +7755,13 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B210" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C210" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -7721,13 +7778,13 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B211" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="C211" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -7744,13 +7801,13 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B212" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C212" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -7767,13 +7824,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B213" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C213" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7790,13 +7847,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B214" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C214" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -7813,13 +7870,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B215" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C215" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -7836,13 +7893,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B216" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C216" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -7859,13 +7916,13 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B217" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C217" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -7882,13 +7939,13 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B218" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C218" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -7905,13 +7962,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B219" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="C219" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -7928,13 +7985,13 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B220" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C220" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -7951,13 +8008,13 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B221" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C221" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -7974,13 +8031,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B222" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="C222" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -7997,13 +8054,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B223" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C223" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -8020,13 +8077,13 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B224" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C224" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8043,13 +8100,13 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B225" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="C225" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8066,13 +8123,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B226" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="C226" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8089,13 +8146,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B227" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="C227" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8112,13 +8169,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="B228" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="C228" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8135,13 +8192,13 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B229" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="C229" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -8158,13 +8215,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="B230" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="C230" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8181,13 +8238,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B231" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C231" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8204,13 +8261,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B232" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="C232" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8227,13 +8284,13 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="B233" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="C233" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8250,13 +8307,13 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="B234" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="C234" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8273,13 +8330,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="B235" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C235" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8296,13 +8353,13 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="B236" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="C236" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8319,13 +8376,13 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B237" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="C237" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8342,13 +8399,13 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="B238" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="C238" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8365,13 +8422,13 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B239" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="C239" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8388,13 +8445,13 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B240" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="C240" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8411,13 +8468,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B241" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="C241" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8434,13 +8491,13 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B242" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="C242" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8457,13 +8514,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B243" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="C243" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8480,13 +8537,13 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B244" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="C244" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8503,13 +8560,13 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B245" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="C245" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8526,13 +8583,13 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B246" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="C246" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8549,13 +8606,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B247" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="C247" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8572,13 +8629,13 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B248" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="C248" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8595,13 +8652,13 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B249" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="C249" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8618,13 +8675,13 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B250" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="C250" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8641,13 +8698,13 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="B251" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C251" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8664,13 +8721,13 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B252" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="C252" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8687,13 +8744,13 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B253" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C253" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -8710,13 +8767,13 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B254" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="C254" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -8733,13 +8790,13 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B255" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="C255" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -8756,13 +8813,13 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="B256" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="C256" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -8779,13 +8836,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="B257" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="C257" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -8802,13 +8859,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="B258" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="C258" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -8825,13 +8882,13 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="B259" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C259" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8848,13 +8905,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="B260" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="C260" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -8871,13 +8928,13 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="B261" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C261" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -8894,13 +8951,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="B262" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C262" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -8917,13 +8974,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="B263" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="C263" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -8940,13 +8997,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B264" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="C264" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -8963,13 +9020,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B265" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="C265" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -8986,13 +9043,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B266" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="C266" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9009,13 +9066,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="B267" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="C267" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9032,13 +9089,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="B268" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="C268" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9055,13 +9112,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B269" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="C269" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9078,13 +9135,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="B270" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C270" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9101,13 +9158,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="B271" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="C271" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9124,13 +9181,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="B272" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="C272" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9147,13 +9204,13 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B273" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="C273" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9170,13 +9227,13 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B274" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C274" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9193,13 +9250,13 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B275" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="C275" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9216,13 +9273,13 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="B276" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="C276" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9239,13 +9296,13 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B277" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="C277" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9262,13 +9319,13 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B278" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="C278" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9285,13 +9342,13 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="B279" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C279" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9308,13 +9365,13 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="B280" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="C280" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -9331,13 +9388,13 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B281" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="C281" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -9354,13 +9411,13 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="B282" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="C282" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9377,13 +9434,13 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B283" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="C283" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9400,13 +9457,13 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B284" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="C284" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -9423,13 +9480,13 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B285" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C285" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -9446,13 +9503,13 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="B286" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="C286" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9469,13 +9526,13 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="B287" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="C287" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9492,13 +9549,13 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="B288" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="C288" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9515,13 +9572,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="B289" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="C289" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9538,13 +9595,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="B290" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="C290" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -9561,13 +9618,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="B291" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C291" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -9584,13 +9641,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="B292" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="C292" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9607,13 +9664,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="B293" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C293" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -9630,13 +9687,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="B294" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="C294" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9653,13 +9710,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B295" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="C295" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9676,13 +9733,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="B296" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="C296" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -9699,13 +9756,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B297" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="C297" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -9722,13 +9779,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B298" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C298" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -9745,13 +9802,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="B299" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="C299" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -9768,13 +9825,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="B300" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="C300" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -9791,13 +9848,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B301" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="C301" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -9814,13 +9871,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="B302" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="C302" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -9837,13 +9894,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B303" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="C303" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -9860,13 +9917,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="B304" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C304" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -9883,13 +9940,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="B305" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="C305" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -9906,13 +9963,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B306" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="C306" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -9929,13 +9986,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="B307" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="C307" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -9952,13 +10009,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="B308" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="C308" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -9975,13 +10032,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="B309" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="C309" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -9998,13 +10055,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="B310" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="C310" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10021,13 +10078,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="B311" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="C311" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10044,13 +10101,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="B312" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="C312" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -10067,13 +10124,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="B313" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="C313" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10090,13 +10147,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="B314" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="C314" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10113,13 +10170,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B315" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="C315" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10136,13 +10193,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="B316" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="C316" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10159,13 +10216,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="B317" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="C317" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -10182,13 +10239,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="B318" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="C318" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10205,13 +10262,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B319" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="C319" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10228,13 +10285,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="B320" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="C320" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -10251,13 +10308,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="B321" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="C321" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10274,13 +10331,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="B322" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="C322" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10297,13 +10354,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="B323" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C323" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -10320,13 +10377,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="B324" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C324" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10343,13 +10400,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="B325" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="C325" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10366,13 +10423,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="B326" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="C326" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -10389,13 +10446,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="B327" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C327" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeT5_225.xlsx
+++ b/HE/W_in_progress/AnalisiCodeT5_225.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61396E96-43D8-4C9B-A42C-23F97754E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF05D8D1-F7D2-4121-ACC9-8195EFE3574B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="834">
   <si>
     <t>IN</t>
   </si>
@@ -1116,6 +1116,9 @@
     <t>debouncer_display_btn: button_debouncer port map(clk_period =&gt; 10, btn_noise_time =&gt; 10000000);</t>
   </si>
   <si>
+    <t>Manca gli altri parametri</t>
+  </si>
+  <si>
     <t>debouncer_plaintext_btn is an instance of button_debouncer with parameters clk_period set to 10, btn_noise_time set to 10000000 and signals rst, clock, btn_plainText_in, t_btn_plaintext are connected</t>
   </si>
   <si>
@@ -1242,6 +1245,9 @@
     <t>constant LATCH_CNT : boolean := false; if clatch = 0 then LATCH_CNT &lt;= true; else LATCH_CNT &lt;= false; end if;</t>
   </si>
   <si>
+    <t>Equivalente</t>
+  </si>
+  <si>
     <t>n is a constant of type integer initialized to 1000</t>
   </si>
   <si>
@@ -1278,6 +1284,9 @@
     <t>gen_rx_ddr_lvds : for i in 0 to 4 generate inst_IDDR : IDDR generic map (DR_CLK_EDGE =&gt; "SAME_EDGE_PIPELINED", SRTYPE =&gt; "ASYNC") port map (Q1 =&gt; rx_data_3x_i(i), Q2 =&gt; rx_data_3x_q(i), C =&gt; clk_rx_3x, CE =&gt; '1', D =&gt; rx_data_3x_ddr(i), R =&gt; rx_reset, S =&gt; '0'); inst_IBUFDS : IBUFDS generic map (DIFF_TERM =&gt; TRUE, IOSTANDARD =&gt; "DEFAULT") port map (I =&gt; RX_DATA_P(i), IB =&gt; RX_DATA_N(i), O =&gt; rx_data_3x_ddr(i)); end generate;</t>
   </si>
   <si>
+    <t>Quasi identici</t>
+  </si>
+  <si>
     <t>gen_num is a for generate statement on variable N over LOOP_COUNT range that generates component rd_gen_inst2 that is an instance of fifo_rng with generic signals WIDTH initialized to 8, SEED initialized to TB_SEED+N and port signals CLK initialized to RD_CLK, RESET initialized to RESET, RANDOM_NUM initialized to elements of rand_num with indices from 8*(N+1)-1 down to 8*N, ENABLE initialized to pr_r_en</t>
   </si>
   <si>
@@ -1285,6 +1294,9 @@
   </si>
   <si>
     <t>gen_num: for N in 0 to LOOP_COUNT range generate rd_gen_inst2: rd_gen_generic port map (WIDTH =&gt; 8, SEED =&gt; TB_SEED+N, CLK =&gt; RD_CLK, RESET =&gt; RESET, RANDOM_NUM =&gt; rand_num(8*(N+1)-1 downto 8*N), ENABLE =&gt; pr_r_en); end generate;</t>
+  </si>
+  <si>
+    <t>Piccoli errori sulla sintassi, però più o meno fa quello che è stato chiesto</t>
   </si>
   <si>
     <t>define a signal round_keys as an array of dataArrayType</t>
@@ -2885,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="C327" sqref="C327"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6258,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>342</v>
       </c>
@@ -6281,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>345</v>
       </c>
@@ -6304,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>347</v>
       </c>
@@ -6327,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>350</v>
       </c>
@@ -6350,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>352</v>
       </c>
@@ -6373,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>355</v>
       </c>
@@ -6396,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>358</v>
       </c>
@@ -6418,16 +6430,19 @@
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B152" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C152" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6439,18 +6454,18 @@
         <v>0.99997722303206993</v>
       </c>
       <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B153" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C153" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6465,15 +6480,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B154" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C154" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -6488,15 +6503,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B155" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C155" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -6511,15 +6526,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B156" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C156" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -6534,15 +6549,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B157" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C157" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -6557,15 +6572,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B158" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C158" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6577,18 +6592,18 @@
         <v>0.9999941303531179</v>
       </c>
       <c r="G158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C159" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6600,18 +6615,18 @@
         <v>0.99999218749999996</v>
       </c>
       <c r="G159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B160" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C160" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6623,18 +6638,18 @@
         <v>0.99997155211652256</v>
       </c>
       <c r="G160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B161" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C161" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -6649,15 +6664,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B162" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C162" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -6672,15 +6687,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B163" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C163" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -6695,15 +6710,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B164" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C164" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -6718,15 +6733,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B165" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C165" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -6741,15 +6756,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B166" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C166" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -6764,15 +6779,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B167" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C167" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -6784,18 +6799,18 @@
         <v>0.88194444444444442</v>
       </c>
       <c r="G167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B168" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C168" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -6810,15 +6825,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B169" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C169" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -6830,18 +6845,21 @@
         <v>0.58826632900706977</v>
       </c>
       <c r="G169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H169" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B170" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C170" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -6856,15 +6874,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B171" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C171" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -6879,15 +6897,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B172" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C172" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -6899,18 +6917,18 @@
         <v>0.88194444444444442</v>
       </c>
       <c r="G172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B173" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C173" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -6925,15 +6943,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B174" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C174" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -6948,15 +6966,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B175" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C175" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -6968,18 +6986,21 @@
         <v>0.99230584330638416</v>
       </c>
       <c r="G175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H175" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B176" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C176" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -6991,12 +7012,15 @@
         <v>0.89218192045587219</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H176" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B177" t="s">
         <v>109</v>
@@ -7019,13 +7043,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B178" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C178" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7042,13 +7066,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B179" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C179" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -7065,13 +7089,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
+        <v>429</v>
+      </c>
+      <c r="B180" t="s">
+        <v>424</v>
+      </c>
+      <c r="C180" t="s">
         <v>425</v>
-      </c>
-      <c r="B180" t="s">
-        <v>420</v>
-      </c>
-      <c r="C180" t="s">
-        <v>421</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7088,13 +7112,13 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B181" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C181" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -7111,13 +7135,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B182" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C182" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7134,13 +7158,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B183" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C183" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7157,13 +7181,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B184" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C184" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -7180,13 +7204,13 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B185" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C185" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -7203,13 +7227,13 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B186" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C186" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -7226,13 +7250,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B187" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C187" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7249,13 +7273,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B188" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C188" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7272,13 +7296,13 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B189" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C189" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7295,13 +7319,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B190" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C190" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7318,13 +7342,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B191" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C191" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7341,13 +7365,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B192" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C192" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -7364,13 +7388,13 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B193" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C193" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7387,13 +7411,13 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B194" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C194" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -7410,13 +7434,13 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B195" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C195" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7433,13 +7457,13 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B196" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C196" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -7456,13 +7480,13 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B197" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C197" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7479,13 +7503,13 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B198" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C198" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7502,13 +7526,13 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B199" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C199" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7525,13 +7549,13 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B200" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C200" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7548,13 +7572,13 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B201" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C201" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -7571,13 +7595,13 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B202" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C202" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -7594,13 +7618,13 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B203" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C203" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -7617,13 +7641,13 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B204" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C204" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -7640,13 +7664,13 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B205" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C205" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -7663,13 +7687,13 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B206" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C206" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7686,13 +7710,13 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B207" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C207" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -7709,13 +7733,13 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B208" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C208" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -7732,13 +7756,13 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B209" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C209" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -7755,13 +7779,13 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B210" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C210" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -7778,13 +7802,13 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B211" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C211" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -7801,13 +7825,13 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B212" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C212" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -7824,13 +7848,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B213" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C213" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7847,13 +7871,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B214" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C214" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -7870,13 +7894,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B215" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C215" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -7893,13 +7917,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B216" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C216" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -7916,13 +7940,13 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B217" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C217" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -7939,13 +7963,13 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B218" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C218" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -7962,13 +7986,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B219" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C219" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -7985,13 +8009,13 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B220" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C220" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8008,13 +8032,13 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B221" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C221" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -8031,13 +8055,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B222" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C222" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -8054,13 +8078,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B223" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C223" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -8077,13 +8101,13 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B224" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C224" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8100,13 +8124,13 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B225" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C225" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8123,13 +8147,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B226" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C226" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8146,13 +8170,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B227" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C227" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8169,13 +8193,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B228" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C228" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8192,13 +8216,13 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B229" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C229" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -8215,13 +8239,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B230" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C230" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8238,13 +8262,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B231" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C231" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8261,13 +8285,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B232" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C232" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8284,13 +8308,13 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B233" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C233" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8307,13 +8331,13 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B234" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C234" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8330,13 +8354,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B235" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C235" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8353,13 +8377,13 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B236" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C236" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8376,13 +8400,13 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B237" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C237" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8399,13 +8423,13 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B238" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C238" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8422,13 +8446,13 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B239" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C239" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8445,13 +8469,13 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B240" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C240" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8468,13 +8492,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B241" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C241" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8491,13 +8515,13 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B242" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C242" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8514,13 +8538,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B243" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C243" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8537,13 +8561,13 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B244" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C244" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8560,13 +8584,13 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B245" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C245" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8583,13 +8607,13 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B246" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C246" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8606,13 +8630,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B247" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C247" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8629,13 +8653,13 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B248" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C248" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8652,13 +8676,13 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B249" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C249" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8675,13 +8699,13 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B250" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C250" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8698,13 +8722,13 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B251" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C251" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8721,13 +8745,13 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B252" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C252" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8744,13 +8768,13 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B253" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C253" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -8767,13 +8791,13 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B254" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C254" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -8790,13 +8814,13 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B255" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C255" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -8813,13 +8837,13 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B256" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C256" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -8836,13 +8860,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B257" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C257" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -8859,13 +8883,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B258" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C258" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -8882,13 +8906,13 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B259" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C259" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8905,13 +8929,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B260" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C260" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -8928,13 +8952,13 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B261" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C261" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -8951,13 +8975,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B262" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C262" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -8974,13 +8998,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B263" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C263" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -8997,13 +9021,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B264" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C264" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9020,13 +9044,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B265" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C265" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9043,13 +9067,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B266" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C266" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9066,13 +9090,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B267" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C267" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9089,13 +9113,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B268" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C268" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9112,13 +9136,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B269" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C269" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9135,13 +9159,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B270" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C270" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9158,13 +9182,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B271" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C271" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9181,13 +9205,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B272" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C272" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9204,13 +9228,13 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B273" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C273" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9227,13 +9251,13 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B274" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C274" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9250,13 +9274,13 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B275" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C275" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9273,13 +9297,13 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B276" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C276" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9296,13 +9320,13 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B277" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C277" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9319,13 +9343,13 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B278" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C278" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9342,13 +9366,13 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B279" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C279" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9365,13 +9389,13 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B280" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C280" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -9388,13 +9412,13 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B281" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C281" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -9411,13 +9435,13 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B282" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C282" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9434,13 +9458,13 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B283" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C283" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9457,13 +9481,13 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B284" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C284" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -9480,13 +9504,13 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B285" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C285" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -9503,13 +9527,13 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B286" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C286" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9526,13 +9550,13 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B287" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C287" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9549,13 +9573,13 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B288" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C288" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9572,13 +9596,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B289" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C289" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9595,13 +9619,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B290" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C290" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -9618,13 +9642,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B291" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C291" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -9641,13 +9665,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B292" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C292" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9664,13 +9688,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B293" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C293" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -9687,13 +9711,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B294" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C294" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9710,13 +9734,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B295" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C295" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9733,13 +9757,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B296" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C296" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -9756,13 +9780,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B297" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C297" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -9779,13 +9803,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B298" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C298" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -9802,13 +9826,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B299" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C299" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -9825,13 +9849,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B300" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C300" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -9848,13 +9872,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B301" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C301" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -9871,13 +9895,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B302" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C302" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -9894,13 +9918,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B303" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C303" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -9917,13 +9941,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B304" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C304" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -9940,13 +9964,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B305" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C305" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -9963,13 +9987,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B306" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C306" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -9986,13 +10010,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B307" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C307" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10009,13 +10033,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B308" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C308" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10032,13 +10056,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B309" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C309" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10055,13 +10079,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B310" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C310" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10078,13 +10102,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B311" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C311" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10101,13 +10125,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B312" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C312" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -10124,13 +10148,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B313" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C313" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10147,13 +10171,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B314" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C314" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10170,13 +10194,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B315" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C315" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10193,13 +10217,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B316" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C316" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10216,13 +10240,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B317" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C317" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -10239,13 +10263,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B318" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C318" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10262,13 +10286,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B319" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C319" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10285,13 +10309,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B320" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C320" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -10308,13 +10332,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B321" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C321" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10331,13 +10355,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B322" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C322" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10354,13 +10378,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B323" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C323" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -10377,13 +10401,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B324" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C324" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10400,13 +10424,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B325" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C325" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10423,13 +10447,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B326" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C326" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -10446,13 +10470,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B327" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C327" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeT5_225.xlsx
+++ b/HE/W_in_progress/AnalisiCodeT5_225.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF05D8D1-F7D2-4121-ACC9-8195EFE3574B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B920AD3-94FC-4B26-A9DC-90D8B00BED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="838">
   <si>
     <t>IN</t>
   </si>
@@ -1338,6 +1338,9 @@
     <t>x(3)</t>
   </si>
   <si>
+    <t>Se conto da 0 il 3 è il 4 elemento</t>
+  </si>
+  <si>
     <t>Set the first element of the array 'blocks' to the value of the signal 'plaintext'</t>
   </si>
   <si>
@@ -1365,6 +1368,9 @@
     <t>memory_ram(to_integer(unsigned(address_a))) &lt;= data_in_a(to_integer((ram_word_size)*(index+1) - 1);</t>
   </si>
   <si>
+    <t>Qualche errore, ma potrebbe essere corretto</t>
+  </si>
+  <si>
     <t>Create a 32x32 memory array matrix_mem, define a 32-bit signal row_data, and assign the contents of the 25th row of matrix_mem to row_data</t>
   </si>
   <si>
@@ -1383,6 +1389,9 @@
     <t>addr := unsigned(ADR_I(10 downto 0))</t>
   </si>
   <si>
+    <t>Manca il primo cast a to_integer</t>
+  </si>
+  <si>
     <t>Define a 168-bit signal data_block, create a 21-bit signal eighth, and set eighth to bits 125 downto 105 of data_block</t>
   </si>
   <si>
@@ -1417,6 +1426,9 @@
   </si>
   <si>
     <t>with data select decoded &lt;= "00000001" when "00001001110100011111", "00000010" when "00001001110100011110", "00000011" when "00001001110100001111", "00000100" when "00001001110100001110", "00000101" when "00001001110100101001", "00000110" when "00001001110100101000", "00000111" when "00001001110100101101", "00001000" when "00001001110100101100", "00001001" when "00001001110100010001", "00010000" when "00001001110100010000", "00010001" when "00001001110100011001", "00010010" when "00001001110100011000", "00010011" when "00001001110100001101", "00010100" when "00001001110100001100", "00010101" when "00001001110100010001", "00010000" when "00001001110100010000", "00010001" when "00001001110100011001", "00010010" when "00001001110100011000", "00010011" when "00001001110100001101", "00010100" when "00001001110100001100", "00010101" when "00001001110100010001", "00010000" when "00001001110100010000", "00010001" when "00001001110100011001", "00010010" when "00001001110100011000", "00010011" when "00001001110100011000", "00010011" when "00001001110100011000", "00010011" when "00001001110100011000", "00010011" when "00001001110100011000</t>
+  </si>
+  <si>
+    <t>Non precisissimo, ma ci può stare</t>
   </si>
   <si>
     <t>Using the selected signal assignment, set constant_out to 42 when selector is "000", set it to 101 when selector is "001", set it to 255 when selector is "010", otherwise set it to 0</t>
@@ -2897,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7018,7 +7030,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>422</v>
       </c>
@@ -7041,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>423</v>
       </c>
@@ -7061,10 +7073,10 @@
         <v>0.99971064814814814</v>
       </c>
       <c r="G178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>426</v>
       </c>
@@ -7084,10 +7096,10 @@
         <v>0.99971064814814814</v>
       </c>
       <c r="G179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>429</v>
       </c>
@@ -7107,10 +7119,10 @@
         <v>0.99971064814814814</v>
       </c>
       <c r="G180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>430</v>
       </c>
@@ -7133,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>432</v>
       </c>
@@ -7153,18 +7165,21 @@
         <v>0.63888888888888884</v>
       </c>
       <c r="G182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H182" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B183" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C183" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7179,15 +7194,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B184" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C184" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -7202,15 +7217,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B185" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C185" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -7225,15 +7240,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B186" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C186" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -7245,18 +7260,21 @@
         <v>0.51621164021164034</v>
       </c>
       <c r="G186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H186" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B187" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C187" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7268,18 +7286,18 @@
         <v>0.97493425378040777</v>
       </c>
       <c r="G187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B188" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C188" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7293,16 +7311,19 @@
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B189" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C189" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7314,18 +7335,18 @@
         <v>0.96650812524772101</v>
       </c>
       <c r="G189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B190" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C190" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7340,15 +7361,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B191" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C191" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7363,15 +7384,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B192" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C192" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -7386,15 +7407,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B193" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C193" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7406,18 +7427,21 @@
         <v>0.73119887232208969</v>
       </c>
       <c r="G193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H193" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B194" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C194" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -7432,15 +7456,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B195" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C195" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7452,18 +7476,18 @@
         <v>0.93934911242603547</v>
       </c>
       <c r="G195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B196" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C196" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -7478,15 +7502,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B197" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C197" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7501,15 +7525,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B198" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C198" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7524,15 +7548,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B199" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C199" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7547,15 +7571,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B200" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C200" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7570,15 +7594,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B201" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C201" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -7593,15 +7617,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B202" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C202" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -7616,15 +7640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B203" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C203" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -7639,15 +7663,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B204" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C204" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -7662,15 +7686,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B205" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C205" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -7685,15 +7709,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B206" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C206" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7708,15 +7732,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B207" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C207" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -7731,15 +7755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B208" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C208" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -7756,13 +7780,13 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B209" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C209" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -7779,13 +7803,13 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B210" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C210" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -7802,13 +7826,13 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B211" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C211" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -7825,13 +7849,13 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B212" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C212" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -7848,13 +7872,13 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B213" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C213" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7871,13 +7895,13 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B214" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C214" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -7894,13 +7918,13 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B215" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C215" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -7917,13 +7941,13 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B216" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C216" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -7940,13 +7964,13 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B217" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C217" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -7963,13 +7987,13 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B218" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C218" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -7986,13 +8010,13 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B219" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C219" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -8009,13 +8033,13 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B220" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C220" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8032,13 +8056,13 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B221" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C221" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -8055,13 +8079,13 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B222" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C222" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -8078,13 +8102,13 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B223" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C223" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -8101,13 +8125,13 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B224" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C224" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8124,13 +8148,13 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B225" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C225" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8147,13 +8171,13 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B226" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C226" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8170,13 +8194,13 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B227" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C227" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8193,13 +8217,13 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B228" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C228" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8216,13 +8240,13 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B229" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C229" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -8239,13 +8263,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B230" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C230" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8262,13 +8286,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B231" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C231" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8285,13 +8309,13 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B232" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C232" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8308,13 +8332,13 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B233" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C233" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8331,13 +8355,13 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B234" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C234" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8354,13 +8378,13 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B235" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C235" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8377,13 +8401,13 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B236" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C236" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8400,13 +8424,13 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B237" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C237" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8423,13 +8447,13 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B238" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C238" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8446,13 +8470,13 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B239" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C239" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8469,13 +8493,13 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B240" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C240" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8492,13 +8516,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B241" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C241" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8515,13 +8539,13 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B242" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C242" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8538,13 +8562,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B243" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C243" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8561,13 +8585,13 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B244" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C244" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8584,13 +8608,13 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B245" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C245" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8607,13 +8631,13 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B246" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C246" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8630,13 +8654,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B247" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C247" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8653,13 +8677,13 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B248" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C248" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8676,13 +8700,13 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B249" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C249" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8699,13 +8723,13 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B250" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C250" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8722,13 +8746,13 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B251" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C251" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8745,13 +8769,13 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B252" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C252" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8768,13 +8792,13 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B253" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C253" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -8791,13 +8815,13 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B254" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C254" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -8814,13 +8838,13 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B255" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C255" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -8837,13 +8861,13 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B256" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C256" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -8860,13 +8884,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B257" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C257" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -8883,13 +8907,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B258" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C258" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -8906,13 +8930,13 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B259" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C259" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8929,13 +8953,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B260" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C260" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -8952,13 +8976,13 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B261" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C261" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -8975,13 +8999,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B262" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C262" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -8998,13 +9022,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B263" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C263" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9021,13 +9045,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B264" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C264" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9044,13 +9068,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B265" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C265" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9067,13 +9091,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B266" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C266" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9090,13 +9114,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B267" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C267" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9113,13 +9137,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B268" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C268" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9136,13 +9160,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B269" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C269" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9159,13 +9183,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B270" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C270" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9182,13 +9206,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B271" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C271" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9205,13 +9229,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B272" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C272" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9228,13 +9252,13 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B273" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C273" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9251,13 +9275,13 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B274" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C274" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9274,13 +9298,13 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B275" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C275" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9297,13 +9321,13 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B276" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C276" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9320,13 +9344,13 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B277" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C277" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9343,13 +9367,13 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B278" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C278" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9366,13 +9390,13 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B279" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C279" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9389,13 +9413,13 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B280" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C280" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -9412,13 +9436,13 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B281" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C281" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -9435,13 +9459,13 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B282" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C282" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9458,13 +9482,13 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B283" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C283" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9481,13 +9505,13 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B284" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C284" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -9504,13 +9528,13 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B285" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C285" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -9527,13 +9551,13 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B286" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C286" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9550,13 +9574,13 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B287" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C287" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9573,13 +9597,13 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B288" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C288" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9596,13 +9620,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B289" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C289" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9619,13 +9643,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B290" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C290" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -9642,13 +9666,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B291" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C291" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -9665,13 +9689,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B292" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C292" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9688,13 +9712,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B293" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C293" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -9711,13 +9735,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B294" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C294" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9734,13 +9758,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B295" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C295" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9757,13 +9781,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B296" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C296" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -9780,13 +9804,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B297" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C297" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -9803,13 +9827,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B298" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C298" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -9826,13 +9850,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B299" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C299" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -9849,13 +9873,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B300" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C300" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -9872,13 +9896,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B301" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C301" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -9895,13 +9919,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B302" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C302" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -9918,13 +9942,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B303" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C303" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -9941,13 +9965,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B304" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C304" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -9964,13 +9988,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B305" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C305" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -9987,13 +10011,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B306" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C306" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10010,13 +10034,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B307" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C307" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10033,13 +10057,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B308" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C308" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10056,13 +10080,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B309" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C309" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10079,13 +10103,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B310" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C310" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10102,13 +10126,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B311" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C311" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10125,13 +10149,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B312" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C312" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -10148,13 +10172,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B313" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C313" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10171,13 +10195,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B314" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C314" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10194,13 +10218,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B315" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C315" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10217,13 +10241,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B316" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C316" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10240,13 +10264,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B317" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C317" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -10263,13 +10287,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B318" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C318" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10286,13 +10310,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B319" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C319" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10309,13 +10333,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B320" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C320" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -10332,13 +10356,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B321" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C321" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10355,13 +10379,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B322" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C322" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10378,13 +10402,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B323" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C323" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -10401,13 +10425,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B324" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C324" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10424,13 +10448,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B325" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C325" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10447,13 +10471,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B326" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C326" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -10470,13 +10494,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B327" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C327" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeT5_225.xlsx
+++ b/HE/W_in_progress/AnalisiCodeT5_225.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B920AD3-94FC-4B26-A9DC-90D8B00BED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC08C1E3-0180-4D84-8D6F-C07D29457173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="871">
   <si>
     <t>IN</t>
   </si>
@@ -1476,6 +1476,9 @@
     <t>assert clock_enable = '0' report "Clock enable not enabled" severity error when clock_enable = '1';</t>
   </si>
   <si>
+    <t>Sintatticamente non corretta</t>
+  </si>
+  <si>
     <t>Verify that 'output' is updated on the falling edge of 'clk' when 'enable' is high</t>
   </si>
   <si>
@@ -1485,6 +1488,9 @@
     <t>assert enable = '1' report "Output not updated on falling edge" severity error when clk_event = '1' and clk_event_type = '1' and enable = '1';</t>
   </si>
   <si>
+    <t>Non prevede l'evento</t>
+  </si>
+  <si>
     <t>Ensure 'reset' pulse width is at least 10 ns</t>
   </si>
   <si>
@@ -1494,6 +1500,9 @@
     <t>assert reset_pulse_width = 10 ns report "Reset pulse width too short" severity error;</t>
   </si>
   <si>
+    <t>Completamente sbagliata</t>
+  </si>
+  <si>
     <t>Check if 'data_out' matches expected pattern</t>
   </si>
   <si>
@@ -1503,6 +1512,9 @@
     <t>assert data_out matches expected_pattern report "Data out matches expected pattern" severity error;</t>
   </si>
   <si>
+    <t>Ha traslitterato</t>
+  </si>
+  <si>
     <t>Check if 'output' toggles every clock cycle when 'toggle_mode' is active</t>
   </si>
   <si>
@@ -1512,6 +1524,9 @@
     <t>assert output = '1' report "Output not toggled after toggle_mode" severity error;</t>
   </si>
   <si>
+    <t>Completamente sballato</t>
+  </si>
+  <si>
     <t>Report an error message with failure severity if the output signal does not equal '0'</t>
   </si>
   <si>
@@ -1530,6 +1545,9 @@
     <t>architecture archi of shift_register is begin process (clk) begin if rising_edge(clk) then shift_reg &lt;= shift_reg(3 downto 0) &amp; input; end if; end process;</t>
   </si>
   <si>
+    <t>Concatenazione non equivalente</t>
+  </si>
+  <si>
     <t>half_adder is the entity for the half adder</t>
   </si>
   <si>
@@ -1557,6 +1575,9 @@
     <t>entity decoder_2_4 is port(a0 : in STD_LOGIC; a1 : in STD_LOGIC; s : in STD_LOGIC; y : out STD_LOGIC); end decoder_2_4;</t>
   </si>
   <si>
+    <t>Non ha 4 uscite</t>
+  </si>
+  <si>
     <t>define the entity for a multiplier 8 bit</t>
   </si>
   <si>
@@ -1566,6 +1587,9 @@
     <t>entity multiplier_8 is port(clk, rst, si : in std_logic; so : out std_logic); end multiplier_8;</t>
   </si>
   <si>
+    <t>Non è un moltiplicatore</t>
+  </si>
+  <si>
     <t>define the variable size of type integer with values from 10 to 10000 and initialize it to 1000</t>
   </si>
   <si>
@@ -1656,6 +1680,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity glitch_filter is Port ( Noisy_In : in STD_LOGIC; Filtered_Out : out STD_LOGIC); end glitch_filter; architecture Behavioral of glitch_filter is begin process (Noisy_In) variable filtered_out : std_logic := '0'; begin filtered_out := Noisy_In; for i in 0 to 15 loop filtered_out := filtered_out(i) xor '1'; end loop ; Filtered_Out &lt;= filtered_out; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non fa il filtraggio dei glitch</t>
+  </si>
+  <si>
     <t>Implement a basic moving average filter with circular buffer</t>
   </si>
   <si>
@@ -1665,6 +1692,9 @@
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then sum &lt;= (others =&gt; '0'); elsif sum = '0' then sum &lt;= '1'; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Non implementa ciò che ho richeisto</t>
+  </si>
+  <si>
     <t>Implement a Manchester decoder using a process.</t>
   </si>
   <si>
@@ -1674,6 +1704,9 @@
     <t>process(clk,rst)begin if rst='1'then manchester_out&lt;='0';elsif rising_edge(clk)then manchester_out&lt;=not manchester_out;end if;end process;</t>
   </si>
   <si>
+    <t>E' un toggle</t>
+  </si>
+  <si>
     <t>Define a register of N-bit with the signals clock, reset, enable, and D (N-bit) as input and the signal Q (N-bit) as output.</t>
   </si>
   <si>
@@ -1683,6 +1716,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity Register is Generic(N : natural := 8); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Enable : in STD_LOGIC; D : in STD_LOGIC_VECTOR (N-1 downto 0); Q : out STD_LOGIC_VECTOR (N-1 downto 0)); end Register; architecture Behavioral of Register is begin process (Clock, Reset) variable reg : unsigned(N-1 downto 0); begin if (Reset = '1') then reg := (others =&gt; '0'); elsif (rising_edge(Clock)) then if (Enable = '1') then reg := reg(N-2 downto 0) &amp; D; end if ; end if ; Q &lt;= reg; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Fa un registro</t>
+  </si>
+  <si>
     <t>Create a simple 4-bit comparator</t>
   </si>
   <si>
@@ -1692,6 +1728,9 @@
     <t>process(a, b) begin if a = b then case state is when IDLE =&gt; if a = '1' and b = '0' then state &lt;= COMPARATOR; else state &lt;= COMPARATOR_IN; end if; when COMPARATOR_IN =&gt; if a = '1' and b = '0' then state &lt;= IDLE; else state &lt;= IDLE; end if; when COMPARATOR_OUT =&gt; if a = '1' and b = '0' then state &lt;= IDLE; else state &lt;= IDLE; end if; when IDLE =&gt; if a = '1' and b = '0' then state &lt;= COMPARATOR; else state &lt;= COMPARATOR_OUT; end if; when COMPARATOR_OUT =&gt; if a = '1' and b = '0' then state &lt;= IDLE; else state &lt;= COMPARATOR_OUT; end if; when COMPARATOR_OUT =&gt; if a = '1' and b = '1' then state &lt;= IDLE; else state &lt;= COMPARATOR_OUT; end if; when COMPARATOR_OUT =&gt; if a = '1' and b = '0' then state &lt;= IDLE; else state &lt;= COMPARATOR_OUT; end if; when COMPARATOR_OUT =&gt; if a = '1' and b = '1' then state &lt;= IDLE; else state &lt;= COMPARATOR_OUT; end if; when COMPARATOR_OUT =&gt; if a = '1' and b = '0' then state &lt;= IDLE; else state &lt;= COMPARATOR_OUT; end if; when COMPARATOR_OUT =&gt; if a = '1' and b = '1' then state &lt;= IDLE; else state &lt;= COMPARATOR_OUT; end if; when COMPARATOR_OUT =&gt; if a = '1' and b = '0' then state &lt;= IDLE; else state &lt;= COMPARATOR_OUT; end if; when COMPARATOR_OUT =&gt; if</t>
   </si>
   <si>
+    <t>Fa proprio un altra cosa</t>
+  </si>
+  <si>
     <t>Implement an SPI slave using a process.</t>
   </si>
   <si>
@@ -1701,6 +1740,9 @@
     <t>process(clk,rst)begin if rst='1'then slave_out&lt;='0';elsif rising_edge(clk)then slave_out&lt;=not slave_out;end if;end process;</t>
   </si>
   <si>
+    <t>Non gestisce il protocollo SPI, dunque non è uno slave SPI</t>
+  </si>
+  <si>
     <t>Implement a frequency counter using a process.</t>
   </si>
   <si>
@@ -1710,6 +1752,9 @@
     <t>process(clk,rst)begin if rst='1'then count&lt;=0;elsif rising_edge(clk)then count&lt;=count+1;end if;end process;</t>
   </si>
   <si>
+    <t>Senza segnali di enable, ma conta la frequenza</t>
+  </si>
+  <si>
     <t>Write a parallel to serial converter of N-bit with the signals clk, parallel_in (N-bit), and load_en as input and the signal serial_out as output.</t>
   </si>
   <si>
@@ -1719,6 +1764,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity ParallelToSerialConverter is Generic(N : natural := 8); Port ( Clk : in STD_LOGIC; Parallel_In : in STD_LOGIC_VECTOR (N-1 downto 0); Load_En : in STD_LOGIC; Serial_Out : out STD_LOGIC); end ParallelToSerialConverter; architecture Behavioral of ParallelToSerialConverter is begin process (Clk, Load_En) variable temp : STD_LOGIC_VECTOR (N-1 downto 0); begin if (rising_edge(Clk)) then temp := Parallel_In; if (Load_En = '1') then temp := temp(N-2 downto 0) &amp; temp(N-1); end if ; end if ; Serial_Out &lt;= temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Una un singolo bit in output, mi può aandre anche bene con p-s</t>
+  </si>
+  <si>
     <t>Define a fixed-point converter of M-bit with the signal float_value (M-bit) as input and the signal fixed_point (N-bit) as output.</t>
   </si>
   <si>
@@ -1728,6 +1776,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity fixed_point_converter is Generic ( M : natural := 8; N : natural := 8 ); Port ( float_value : in signed(M-1 downto 0); fixed_point : out signed(N-1 downto 0)); end fixed_point_converter; architecture Behavioral of fixed_point_converter is begin process (float_value) variable temp : signed(N-1 downto 0); begin temp := float_value; for i in 0 to M-1 loop if temp(i) = '1' then fixed_point &lt;= temp(i); end if ; end loop ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Sbagliata come conversione</t>
+  </si>
+  <si>
     <t>Create a basic memory controller with read and write operations</t>
   </si>
   <si>
@@ -1737,6 +1788,9 @@
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then memory_out &lt;= (others =&gt; '0'); elsif read = '1' then memory_out &lt;= memory_in; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Non a la write</t>
+  </si>
+  <si>
     <t>Define a frequency divider with the signals clock, reset, and divide_ratio (N-bit) as input and the signal divided_clock as output.</t>
   </si>
   <si>
@@ -1746,6 +1800,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity FrequencyDivider is Generic ( N : natural := 8 ); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Divide_Ratio : in STD_LOGIC_VECTOR (N-1 downto 0); Divided_Clock : out STD_LOGIC); end FrequencyDivider; architecture Behavioral of FrequencyDivider is signal count : unsigned(N-1 downto 0) := (others =&gt; '0'); begin process (Clock, Reset) begin if Reset = '1' then count &lt;= (others =&gt; '0'); elsif rising_edge(Clock) then count &lt;= count + 1; end if ; Divided_Clock &lt;= std_logic_vector(count); end process ; end Behavioral;</t>
   </si>
   <si>
+    <t xml:space="preserve">Non fa un divisore di frequenza </t>
+  </si>
+  <si>
     <t>Create a basic SPI (Serial Peripheral Interface) master with multiple slave select</t>
   </si>
   <si>
@@ -1755,6 +1812,9 @@
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then spi_out &lt;= '0'; elsif spi_in = '1' then spi_out &lt;= '1'; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Non fa lo slav select come richiesto</t>
+  </si>
+  <si>
     <t>Create a basic PWM (Pulse Width Modulation) generator with variable frequency</t>
   </si>
   <si>
@@ -1773,6 +1833,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity crc_checker is Generic (N : natural := 8; M : natural := 8); Port ( Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Received_CRC : in STD_LOGIC_VECTOR (M-1 downto 0); Polynomial : in STD_LOGIC_VECTOR (M-1 downto 0); CRC_Match : out STD_LOGIC); end crc_checker; architecture Behavioral of crc_checker is begin process (Data_In, Received_CRC, Polynomial) variable crc : unsigned(M-1 downto 0); begin for i in 0 to N-1 loop if (Data_In(i) = '1') then crc := crc + (unsigned(Polynomial) xor crc(i)) &amp; (unsigned(crc(i))); end if ; end loop ; CRC_Match &lt;= crc; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non implementa un checker CRC</t>
+  </si>
+  <si>
     <t>Define a fixed-point divider of N-bit with the signals dividend (N-bit) and divisor (N-bit) as input and the signals quotient (N-bit) and remainder (N-bit) as output.</t>
   </si>
   <si>
@@ -1782,6 +1845,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity fixed_point_divider is Generic ( N : natural := 8 ); Port ( dividend : in signed(N-1 downto 0); divisor : in signed(N-1 downto 0); quotient : out signed(N-1 downto 0); remainder : out signed(N-1 downto 0) ); end fixed_point_divider; architecture Behavioral of fixed_point_divider is begin process (dividend, divisor) variable temp_quotient : signed(N-1 downto 0); variable temp_remainder : signed(N-1 downto 0); begin temp_quotient := (others =&gt; '0'); temp_remainder := dividend; for i in 0 to N-1 loop if temp_remainder &gt;= divisor then temp_remainder := temp_remainder - divisor; temp_quotient(i) := '1'; end if ; end loop ; quotient &lt;= temp_quotient; remainder &lt;= temp_remainder; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Equivalente anche se non compre la divisione per zero</t>
+  </si>
+  <si>
     <t>Write a 2-bit magnitude comparator with the signals A1, A0, B1, and B0 as input and the signals A_greater, A_equal, and A_smaller as output.</t>
   </si>
   <si>
@@ -1791,6 +1857,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity magnitude_comparator is Port ( A1 : in STD_LOGIC; A0 : in STD_LOGIC; B1 : in STD_LOGIC; B0 : in STD_LOGIC; A_greater : out STD_LOGIC; A_equal : out STD_LOGIC; A_smaller : out STD_LOGIC); end magnitude_comparator; architecture Behavioral of magnitude_comparator is begin process (A1, A0, B1, B0) variable temp : STD_LOGIC := '0'; begin temp := A1 &amp; A0; if temp = '1' then A_greater &lt;= '1'; A_equal &lt;= '1'; A_smaller &lt;= '0'; elsif temp = '0' then A_greater &lt;= '0'; A_equal &lt;= '0'; A_smaller &lt;= '1'; elsif temp = '1' then A_greater &lt;= '0'; A_equal &lt;= '0'; A_smaller &lt;= '0'; elsif temp = '0' then A_greater &lt;= '0'; A_equal &lt;= '0'; A_smaller &lt;= '1'; elsif temp = '1' then A_greater &lt;= '0'; A_equal &lt;= '1'; A_smaller &lt;= '0'; elsif temp = '0' then A_greater &lt;= '0'; A_equal &lt;= '0'; A_smaller &lt;= '1'; else A_greater &lt;= '0'; A_equal &lt;= '0'; A_smaller &lt;= '0'; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non implementa un comparatore di magnitudo</t>
+  </si>
+  <si>
     <t>Write a binary to gray converter of N-bit with the signal binary (N-bit) as input and the signal gray_code (N-bit) as output.</t>
   </si>
   <si>
@@ -1800,6 +1869,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity binary_to_gray is Generic (N : natural := 8); Port ( Binary : in STD_LOGIC_VECTOR (N-1 downto 0); Gray_Code : out STD_LOGIC_VECTOR (N-1 downto 0)); end binary_to_gray; architecture Behavioral of binary_to_gray is begin process (Binary) variable gray_code : std_logic_vector(N-1 downto 0); begin gray_code := Binary; for i in 0 to N-1 loop if gray_code(i) = '1' then gray_code(i) &lt;= '0'; end if ; end loop ; Gray_Code &lt;= gray_code; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non implementa un convertitore gray</t>
+  </si>
+  <si>
     <t>Implement a basic quadrature encoder interface</t>
   </si>
   <si>
@@ -1809,6 +1881,9 @@
     <t>entity quadrature_encoder is port (clk : in std_logic; rst : in std_logic; q : out std_logic_vector(7 downto 0)); end entity; architecture Behavioral of quadrature_encoder is signal count : std_logic_vector(7 downto 0) := (others =&gt; '0'); begin process (clk, rst) begin if rst = '1' then count &lt;= (others =&gt; '0'); elsif rising_edge(clk) then count &lt;= count + 1; end if; q &lt;= count; end process; end architecture;</t>
   </si>
   <si>
+    <t>Semplice contatore</t>
+  </si>
+  <si>
     <t>Define a debouncer with the signal noisy_button as input and the signal clean_button_pulse as output.</t>
   </si>
   <si>
@@ -1818,6 +1893,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity debouncer is Port ( Noisy_Button : in STD_LOGIC; Clean_Button_Pulse : out STD_LOGIC); end debouncer; architecture Behavioral of debouncer is begin process (Noisy_Button) variable temp : STD_LOGIC := '0'; begin temp := Noisy_Button; if temp = '1' then Clean_Button_Pulse &lt;= '1'; elsif temp = '0' then Clean_Button_Pulse &lt;= '0'; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non gestirsce il jitter e dunque non è un debouncer</t>
+  </si>
+  <si>
     <t>Define a Johnson ring counter of N-bit with the signals clock and reset as input and the signal count (N-bit) as output.</t>
   </si>
   <si>
@@ -1836,6 +1914,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity pulse_generator is Generic ( N : natural := 8 ); Port ( Clk : in STD_LOGIC; Reset : in STD_LOGIC; Pulse_Width : in STD_LOGIC_VECTOR (N-1 downto 0); Pulse_Out : out STD_LOGIC ); end pulse_generator; architecture Behavioral of pulse_generator is begin process (Clk, Reset) variable counter : integer range 0 to N-1 := 0; begin if (Reset = '1') then counter := 0; elsif (rising_edge(Clk)) then counter := counter + 1; if (counter = Pulse_Width) then Pulse_Out &lt;= '1'; else Pulse_Out &lt;= '0'; end if ; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Equivalenti</t>
+  </si>
+  <si>
     <t>Define a magnitude comparator of K-bit with the signals A (K-bit) and B (K-bit) as input and the signals A_GT_B, A_EQ_B, and A_LT_B as output.</t>
   </si>
   <si>
@@ -1845,6 +1926,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity magnitude_comparator is Generic ( K : natural := 8 ); Port ( A : in STD_LOGIC_VECTOR (K-1 downto 0); B : in STD_LOGIC_VECTOR (K-1 downto 0); A_GT_B : out STD_LOGIC; A_EQ_B : out STD_LOGIC; A_LT_B : out STD_LOGIC ); end magnitude_comparator; architecture Behavioral of magnitude_comparator is begin process (A, B) variable temp : STD_LOGIC_VECTOR (K-1 downto 0); begin temp := A &amp; B; A_GT_B &lt;= temp(K-1 downto 0); A_EQ_B &lt;= temp(K-2 downto 0); A_LT_B &lt;= temp(K-1 downto 0); end process ; end Behavioral;</t>
   </si>
   <si>
+    <t xml:space="preserve">Qualche errore logico però grossomodo va bene </t>
+  </si>
+  <si>
     <t>Define a pseudo-random number generator of N-bit with the signals clock and seed_value (N-bit) as input and the signal random_number (N-bit) as output.</t>
   </si>
   <si>
@@ -1854,6 +1938,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity PRNG is Generic(N : natural := 8); Port ( Clock : in STD_LOGIC; Seed_Value : in STD_LOGIC_VECTOR (N-1 downto 0); Random_Number : out STD_LOGIC_VECTOR (N-1 downto 0)); end PRNG; architecture Behavioral of PRNG is begin process (Clock) variable seed : integer range 0 to N-1 := 0; begin if rising_edge(Clock) then seed := Seed_Value; Random_Number &lt;= seed; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non genera numeri casuali</t>
+  </si>
+  <si>
     <t>Create a configurable clock divider</t>
   </si>
   <si>
@@ -1872,6 +1959,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity AstableMultivibrator is Port ( Clk : in STD_LOGIC; Reset : in STD_LOGIC; Oscillating_Out : out STD_LOGIC); end AstableMultivibrator; architecture Behavioral of AstableMultivibrator is begin process (Clk, Reset) variable temp : STD_LOGIC := '0'; begin if (Reset = '1') then temp := '0'; elsif (rising_edge(Clk)) then temp := temp + 1; end if ; Oscillating_Out &lt;= temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Deve essere fatto qualche cambiamento ma va bene</t>
+  </si>
+  <si>
     <t>Define a rotating priority encoder with the signal request (N-bit) as input and the signals grant (log2N-bit), valid, and rotation_bit as output.</t>
   </si>
   <si>
@@ -1899,6 +1989,9 @@
     <t>entity digital_comparator is port (clk : in std_logic; rst : in std_logic; input : in std_logic_vector(3 downto 0); output : out std_logic_vector(3 downto 0)); end entity; architecture Behavioral of digital_comparator is signal count : std_logic_vector(3 downto 0) := (others =&gt; '0'); begin process (clk, rst) begin if rst = '1' then count &lt;= (others =&gt; '0'); elsif rising_edge(clk) then if input = '1' then count &lt;= count + 1; end if; end if; end process; output &lt;= count; end architecture;</t>
   </si>
   <si>
+    <t>Non è un comparatore</t>
+  </si>
+  <si>
     <t>Define a 2-to-1 multiplexer with the signals data0, data1, and select as input and the signal data_out as output.</t>
   </si>
   <si>
@@ -1917,6 +2010,9 @@
     <t>process(clk,rst)begin if rst='1'then spi_out&lt;='0';elsif rising_edge(clk)then spi_out&lt;=not spi_out;end if;end process;</t>
   </si>
   <si>
+    <t>Non è un SPI master</t>
+  </si>
+  <si>
     <t>Detect falling edge of a signal using a process.</t>
   </si>
   <si>
@@ -1933,6 +2029,9 @@
   </si>
   <si>
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity universal_shift_register is Generic( P : natural := 8 ); Port ( Clock : in STD_LOGIC; Shift_Enable : in STD_LOGIC; Shift_Direction : in STD_LOGIC; Serial_In : in STD_LOGIC; Parallel_Out : out STD_LOGIC_VECTOR (P-1 downto 0); Serial_Out : out STD_LOGIC ); end universal_shift_register; architecture Behavioral of universal_shift_register is begin process (Clock, Shift_Enable, Shift_Direction, Serial_In) variable temp : STD_LOGIC_VECTOR (P-1 downto 0); begin if rising_edge(Clock) then if Shift_Enable = '1' then temp := Serial_In; elsif Shift_Direction = '0' then temp := temp(P-2 downto 0) &amp; temp(P-1); end if ; end if ; Parallel_Out &lt;= temp; Serial_Out &lt;= temp; end process ; end Behavioral;</t>
+  </si>
+  <si>
+    <t>Apparte qualche errore abbastanza coerenti</t>
   </si>
   <si>
     <t>Implement a basic priority encoder</t>
@@ -2909,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="G197" sqref="G197"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="G255" sqref="G255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7522,7 +7621,7 @@
         <v>0.99999451303155007</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7570,16 +7669,19 @@
       <c r="G199">
         <v>0</v>
       </c>
+      <c r="H199" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B200" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C200" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7593,16 +7695,19 @@
       <c r="G200">
         <v>0</v>
       </c>
+      <c r="H200" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B201" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C201" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -7616,16 +7721,19 @@
       <c r="G201">
         <v>0</v>
       </c>
+      <c r="H201" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B202" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C202" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -7639,16 +7747,19 @@
       <c r="G202">
         <v>0</v>
       </c>
+      <c r="H202" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B203" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C203" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -7662,16 +7773,19 @@
       <c r="G203">
         <v>0</v>
       </c>
+      <c r="H203" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B204" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C204" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -7683,18 +7797,18 @@
         <v>0.920940170940171</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B205" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C205" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -7708,16 +7822,19 @@
       <c r="G205">
         <v>0</v>
       </c>
+      <c r="H205" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B206" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C206" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7729,18 +7846,18 @@
         <v>0.96282844754104435</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B207" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C207" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -7752,18 +7869,18 @@
         <v>0.96282844754104435</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B208" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C208" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -7778,15 +7895,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B209" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C209" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -7800,16 +7917,19 @@
       <c r="G209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B210" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C210" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -7823,16 +7943,19 @@
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B211" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C211" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -7847,15 +7970,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B212" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C212" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -7870,15 +7993,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B213" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="C213" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7890,18 +8013,21 @@
         <v>0.67201737656283123</v>
       </c>
       <c r="G213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H213" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B214" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C214" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -7916,15 +8042,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B215" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C215" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -7939,15 +8065,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B216" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C216" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -7962,15 +8088,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B217" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C217" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -7985,15 +8111,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B218" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C218" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -8008,15 +8134,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B219" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C219" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -8031,15 +8157,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B220" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C220" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8054,15 +8180,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B221" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C221" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -8077,15 +8203,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B222" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C222" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -8100,15 +8226,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B223" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C223" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -8123,15 +8249,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B224" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C224" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8145,16 +8271,19 @@
       <c r="G224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B225" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="C225" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8168,16 +8297,19 @@
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="B226" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="C226" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8191,16 +8323,19 @@
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B227" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C227" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8212,18 +8347,21 @@
         <v>0.72736625514403297</v>
       </c>
       <c r="G227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H227" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="B228" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C228" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8237,16 +8375,19 @@
       <c r="G228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="B229" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="C229" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -8260,16 +8401,19 @@
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="B230" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="C230" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8281,18 +8425,21 @@
         <v>0.62203487013952297</v>
       </c>
       <c r="G230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H230" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="B231" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="C231" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8304,18 +8451,21 @@
         <v>0.70559418290806941</v>
       </c>
       <c r="G231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H231" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="B232" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C232" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8329,16 +8479,19 @@
       <c r="G232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="B233" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="C233" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8352,16 +8505,19 @@
       <c r="G233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="B234" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="C234" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8375,16 +8531,19 @@
       <c r="G234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="B235" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="C235" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8398,16 +8557,19 @@
       <c r="G235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="B236" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="C236" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8419,18 +8581,21 @@
         <v>0.69291232343846532</v>
       </c>
       <c r="G236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H236" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="B237" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="C237" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8444,16 +8609,19 @@
       <c r="G237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="B238" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="C238" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8465,18 +8633,21 @@
         <v>0.61077903654581056</v>
       </c>
       <c r="G238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H238" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="B239" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="C239" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8490,16 +8661,19 @@
       <c r="G239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="B240" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="C240" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8513,16 +8687,19 @@
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="B241" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="C241" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8536,16 +8713,19 @@
       <c r="G241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B242" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="C242" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8559,16 +8739,19 @@
       <c r="G242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="B243" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="C243" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8580,18 +8763,18 @@
         <v>0.82660034438801444</v>
       </c>
       <c r="G243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="B244" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="C244" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8603,18 +8786,21 @@
         <v>0.69100597488726778</v>
       </c>
       <c r="G244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H244" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="B245" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="C245" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8626,18 +8812,21 @@
         <v>0.51538467879942984</v>
       </c>
       <c r="G245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H245" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="B246" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="C246" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8651,16 +8840,19 @@
       <c r="G246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="B247" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="C247" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8672,18 +8864,18 @@
         <v>0.84480070498915405</v>
       </c>
       <c r="G247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="B248" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="C248" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8695,18 +8887,21 @@
         <v>0.90539714212152411</v>
       </c>
       <c r="G248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H248" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="B249" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="C249" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8718,18 +8913,18 @@
         <v>0.65281428171841693</v>
       </c>
       <c r="G249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="B250" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="C250" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8741,18 +8936,18 @@
         <v>0.59366365984966929</v>
       </c>
       <c r="G250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="B251" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="C251" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8766,16 +8961,19 @@
       <c r="G251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="B252" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="C252" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8787,18 +8985,18 @@
         <v>0.66869639457323349</v>
       </c>
       <c r="G252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="B253" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="C253" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -8812,16 +9010,19 @@
       <c r="G253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
       <c r="B254" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
       <c r="C254" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -8833,18 +9034,21 @@
         <v>0.65411379743941467</v>
       </c>
       <c r="G254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H254" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="B255" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="C255" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -8856,18 +9060,21 @@
         <v>0.70199221052631566</v>
       </c>
       <c r="G255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H255" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="B256" t="s">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="C256" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -8884,13 +9091,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>637</v>
+        <v>670</v>
       </c>
       <c r="B257" t="s">
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="C257" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -8907,13 +9114,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>640</v>
+        <v>673</v>
       </c>
       <c r="B258" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
       <c r="C258" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -8930,13 +9137,13 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>643</v>
+        <v>676</v>
       </c>
       <c r="B259" t="s">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="C259" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8953,13 +9160,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>646</v>
+        <v>679</v>
       </c>
       <c r="B260" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
       <c r="C260" t="s">
-        <v>648</v>
+        <v>681</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -8976,13 +9183,13 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>649</v>
+        <v>682</v>
       </c>
       <c r="B261" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="C261" t="s">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -8999,13 +9206,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="B262" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="C262" t="s">
-        <v>654</v>
+        <v>687</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9022,13 +9229,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="B263" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="C263" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9045,13 +9252,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>658</v>
+        <v>691</v>
       </c>
       <c r="B264" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
       <c r="C264" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9068,13 +9275,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
       <c r="B265" t="s">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="C265" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9091,13 +9298,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="B266" t="s">
-        <v>665</v>
+        <v>698</v>
       </c>
       <c r="C266" t="s">
-        <v>666</v>
+        <v>699</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9114,13 +9321,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="B267" t="s">
-        <v>668</v>
+        <v>701</v>
       </c>
       <c r="C267" t="s">
-        <v>669</v>
+        <v>702</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9137,13 +9344,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>670</v>
+        <v>703</v>
       </c>
       <c r="B268" t="s">
-        <v>671</v>
+        <v>704</v>
       </c>
       <c r="C268" t="s">
-        <v>672</v>
+        <v>705</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9160,13 +9367,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="B269" t="s">
-        <v>674</v>
+        <v>707</v>
       </c>
       <c r="C269" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9183,13 +9390,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>676</v>
+        <v>709</v>
       </c>
       <c r="B270" t="s">
-        <v>677</v>
+        <v>710</v>
       </c>
       <c r="C270" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9206,13 +9413,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>679</v>
+        <v>712</v>
       </c>
       <c r="B271" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
       <c r="C271" t="s">
-        <v>681</v>
+        <v>714</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9229,13 +9436,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="B272" t="s">
-        <v>683</v>
+        <v>716</v>
       </c>
       <c r="C272" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9252,13 +9459,13 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="B273" t="s">
-        <v>686</v>
+        <v>719</v>
       </c>
       <c r="C273" t="s">
-        <v>687</v>
+        <v>720</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9275,13 +9482,13 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>688</v>
+        <v>721</v>
       </c>
       <c r="B274" t="s">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="C274" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9298,13 +9505,13 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
       <c r="B275" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="C275" t="s">
-        <v>693</v>
+        <v>726</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9321,13 +9528,13 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="B276" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
       <c r="C276" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9344,13 +9551,13 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>697</v>
+        <v>730</v>
       </c>
       <c r="B277" t="s">
-        <v>698</v>
+        <v>731</v>
       </c>
       <c r="C277" t="s">
-        <v>699</v>
+        <v>732</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9367,13 +9574,13 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="B278" t="s">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="C278" t="s">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9390,13 +9597,13 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="B279" t="s">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="C279" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9413,13 +9620,13 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="B280" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="C280" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -9436,13 +9643,13 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="B281" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
       <c r="C281" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -9459,13 +9666,13 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>710</v>
+        <v>743</v>
       </c>
       <c r="B282" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
       <c r="C282" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9482,13 +9689,13 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="B283" t="s">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="C283" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9505,13 +9712,13 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="B284" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="C284" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -9528,13 +9735,13 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>719</v>
+        <v>752</v>
       </c>
       <c r="B285" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="C285" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -9551,13 +9758,13 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>722</v>
+        <v>755</v>
       </c>
       <c r="B286" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="C286" t="s">
-        <v>724</v>
+        <v>757</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9574,13 +9781,13 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="B287" t="s">
-        <v>726</v>
+        <v>759</v>
       </c>
       <c r="C287" t="s">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9597,13 +9804,13 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>728</v>
+        <v>761</v>
       </c>
       <c r="B288" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
       <c r="C288" t="s">
-        <v>730</v>
+        <v>763</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9620,13 +9827,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="B289" t="s">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="C289" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9643,13 +9850,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>734</v>
+        <v>767</v>
       </c>
       <c r="B290" t="s">
-        <v>735</v>
+        <v>768</v>
       </c>
       <c r="C290" t="s">
-        <v>735</v>
+        <v>768</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -9666,13 +9873,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>736</v>
+        <v>769</v>
       </c>
       <c r="B291" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
       <c r="C291" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -9689,13 +9896,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>738</v>
+        <v>771</v>
       </c>
       <c r="B292" t="s">
-        <v>739</v>
+        <v>772</v>
       </c>
       <c r="C292" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9712,13 +9919,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>741</v>
+        <v>774</v>
       </c>
       <c r="B293" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="C293" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -9735,13 +9942,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>744</v>
+        <v>777</v>
       </c>
       <c r="B294" t="s">
-        <v>745</v>
+        <v>778</v>
       </c>
       <c r="C294" t="s">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9758,13 +9965,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="B295" t="s">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="C295" t="s">
-        <v>749</v>
+        <v>782</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9781,13 +9988,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>750</v>
+        <v>783</v>
       </c>
       <c r="B296" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="C296" t="s">
-        <v>752</v>
+        <v>785</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -9804,13 +10011,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>753</v>
+        <v>786</v>
       </c>
       <c r="B297" t="s">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="C297" t="s">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -9827,13 +10034,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>755</v>
+        <v>788</v>
       </c>
       <c r="B298" t="s">
-        <v>756</v>
+        <v>789</v>
       </c>
       <c r="C298" t="s">
-        <v>757</v>
+        <v>790</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -9850,13 +10057,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>758</v>
+        <v>791</v>
       </c>
       <c r="B299" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="C299" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -9873,13 +10080,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
       <c r="B300" t="s">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="C300" t="s">
-        <v>762</v>
+        <v>795</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -9896,13 +10103,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>763</v>
+        <v>796</v>
       </c>
       <c r="B301" t="s">
-        <v>764</v>
+        <v>797</v>
       </c>
       <c r="C301" t="s">
-        <v>765</v>
+        <v>798</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -9919,13 +10126,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>766</v>
+        <v>799</v>
       </c>
       <c r="B302" t="s">
-        <v>767</v>
+        <v>800</v>
       </c>
       <c r="C302" t="s">
-        <v>768</v>
+        <v>801</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -9942,13 +10149,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>769</v>
+        <v>802</v>
       </c>
       <c r="B303" t="s">
-        <v>770</v>
+        <v>803</v>
       </c>
       <c r="C303" t="s">
-        <v>771</v>
+        <v>804</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -9965,13 +10172,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>772</v>
+        <v>805</v>
       </c>
       <c r="B304" t="s">
-        <v>773</v>
+        <v>806</v>
       </c>
       <c r="C304" t="s">
-        <v>774</v>
+        <v>807</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -9988,13 +10195,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>775</v>
+        <v>808</v>
       </c>
       <c r="B305" t="s">
-        <v>776</v>
+        <v>809</v>
       </c>
       <c r="C305" t="s">
-        <v>776</v>
+        <v>809</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -10011,13 +10218,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>777</v>
+        <v>810</v>
       </c>
       <c r="B306" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="C306" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10034,13 +10241,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
       <c r="B307" t="s">
-        <v>781</v>
+        <v>814</v>
       </c>
       <c r="C307" t="s">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10057,13 +10264,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>783</v>
+        <v>816</v>
       </c>
       <c r="B308" t="s">
-        <v>784</v>
+        <v>817</v>
       </c>
       <c r="C308" t="s">
-        <v>785</v>
+        <v>818</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10080,13 +10287,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>786</v>
+        <v>819</v>
       </c>
       <c r="B309" t="s">
-        <v>787</v>
+        <v>820</v>
       </c>
       <c r="C309" t="s">
-        <v>788</v>
+        <v>821</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10103,13 +10310,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="B310" t="s">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="C310" t="s">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10126,13 +10333,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>791</v>
+        <v>824</v>
       </c>
       <c r="B311" t="s">
-        <v>792</v>
+        <v>825</v>
       </c>
       <c r="C311" t="s">
-        <v>793</v>
+        <v>826</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10149,13 +10356,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>794</v>
+        <v>827</v>
       </c>
       <c r="B312" t="s">
-        <v>795</v>
+        <v>828</v>
       </c>
       <c r="C312" t="s">
-        <v>795</v>
+        <v>828</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -10172,13 +10379,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>796</v>
+        <v>829</v>
       </c>
       <c r="B313" t="s">
-        <v>797</v>
+        <v>830</v>
       </c>
       <c r="C313" t="s">
-        <v>798</v>
+        <v>831</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10195,13 +10402,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>799</v>
+        <v>832</v>
       </c>
       <c r="B314" t="s">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="C314" t="s">
-        <v>801</v>
+        <v>834</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10218,13 +10425,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>802</v>
+        <v>835</v>
       </c>
       <c r="B315" t="s">
-        <v>803</v>
+        <v>836</v>
       </c>
       <c r="C315" t="s">
-        <v>804</v>
+        <v>837</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10241,13 +10448,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>805</v>
+        <v>838</v>
       </c>
       <c r="B316" t="s">
-        <v>806</v>
+        <v>839</v>
       </c>
       <c r="C316" t="s">
-        <v>807</v>
+        <v>840</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10264,13 +10471,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>808</v>
+        <v>841</v>
       </c>
       <c r="B317" t="s">
-        <v>809</v>
+        <v>842</v>
       </c>
       <c r="C317" t="s">
-        <v>809</v>
+        <v>842</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -10287,13 +10494,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>810</v>
+        <v>843</v>
       </c>
       <c r="B318" t="s">
-        <v>811</v>
+        <v>844</v>
       </c>
       <c r="C318" t="s">
-        <v>812</v>
+        <v>845</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10310,13 +10517,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>813</v>
+        <v>846</v>
       </c>
       <c r="B319" t="s">
-        <v>814</v>
+        <v>847</v>
       </c>
       <c r="C319" t="s">
-        <v>815</v>
+        <v>848</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10333,13 +10540,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>816</v>
+        <v>849</v>
       </c>
       <c r="B320" t="s">
-        <v>817</v>
+        <v>850</v>
       </c>
       <c r="C320" t="s">
-        <v>817</v>
+        <v>850</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -10356,13 +10563,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>818</v>
+        <v>851</v>
       </c>
       <c r="B321" t="s">
-        <v>819</v>
+        <v>852</v>
       </c>
       <c r="C321" t="s">
-        <v>820</v>
+        <v>853</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10379,13 +10586,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="B322" t="s">
-        <v>822</v>
+        <v>855</v>
       </c>
       <c r="C322" t="s">
-        <v>823</v>
+        <v>856</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10402,13 +10609,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>824</v>
+        <v>857</v>
       </c>
       <c r="B323" t="s">
-        <v>825</v>
+        <v>858</v>
       </c>
       <c r="C323" t="s">
-        <v>826</v>
+        <v>859</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -10425,13 +10632,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>827</v>
+        <v>860</v>
       </c>
       <c r="B324" t="s">
-        <v>828</v>
+        <v>861</v>
       </c>
       <c r="C324" t="s">
-        <v>829</v>
+        <v>862</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10448,13 +10655,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="B325" t="s">
-        <v>831</v>
+        <v>864</v>
       </c>
       <c r="C325" t="s">
-        <v>832</v>
+        <v>865</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10471,13 +10678,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="B326" t="s">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="C326" t="s">
-        <v>835</v>
+        <v>868</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -10494,13 +10701,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>836</v>
+        <v>869</v>
       </c>
       <c r="B327" t="s">
-        <v>837</v>
+        <v>870</v>
       </c>
       <c r="C327" t="s">
-        <v>837</v>
+        <v>870</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeT5_225.xlsx
+++ b/HE/W_in_progress/AnalisiCodeT5_225.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC08C1E3-0180-4D84-8D6F-C07D29457173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70019204-736E-4994-BB25-CCC01ADBB9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="890">
   <si>
     <t>IN</t>
   </si>
@@ -2043,6 +2043,9 @@
     <t>entity priority_encoder is port (clk : in std_logic; rst : in std_logic; q : out std_logic_vector(7 downto 0)); end entity; architecture Behavioral of priority_encoder is signal count : std_logic_vector(7 downto 0) := (others =&gt; '0'); begin process (clk, rst) begin if rst = '1' then count &lt;= (others =&gt; '0'); elsif rising_edge(clk) then count &lt;= count + 1; end if; q &lt;= count; end process; end architecture;</t>
   </si>
   <si>
+    <t>Implementa un contatore binario</t>
+  </si>
+  <si>
     <t>Define a ring counter of N-bit with the signals clock and reset as input and the signal ring_count (N-bit) as output.</t>
   </si>
   <si>
@@ -2061,6 +2064,9 @@
     <t>entity binary_to_bcd is port (binary : in std_logic_vector(7 downto 0); bcd : out std_logic_vector(7 downto 0)); end entity; architecture Behavioral of binary_to_bcd is begin process (binary) begin case binary is when "0000" =&gt; bcd &lt;= "0000"; when "0001" =&gt; bcd &lt;= "0001"; when "0010" =&gt; bcd &lt;= "0010"; when "0011" =&gt; bcd &lt;= "0011"; when "0100" =&gt; bcd &lt;= "0100"; when "0101" =&gt; bcd &lt;= "0101"; when "0110" =&gt; bcd &lt;= "0110"; when "0111" =&gt; bcd &lt;= "0111"; when "1000" =&gt; bcd &lt;= "1000"; when "1001" =&gt; bcd &lt;= "1001"; when "1010" =&gt; bcd &lt;= "1010"; when "1011" =&gt; bcd &lt;= "1011"; when "1012" =&gt; bcd &lt;= "1012"; when "1013" =&gt; bcd &lt;= "1013"; when "1014" =&gt; bcd &lt;= "1014"; when "1015" =&gt; bcd &lt;= "1015"; when "1016" =&gt; bcd &lt;= "1016"; when "1017" =&gt; bcd &lt;= "1017"; when "1018" =&gt; bcd &lt;= "1018"; when "1019" =&gt; bcd &lt;= "1019"; when "1101" =&gt; bcd &lt;= "1101"; when "1102" =&gt; bcd &lt;= "1102"; when "1103" =&gt; bcd &lt;= "1103"; when "1104" =&gt; bcd &lt;= "1104"; when "1105" =&gt; bcd &lt;= "1105"; when "1106" =&gt; bcd &lt;= "1106"; when "110</t>
   </si>
   <si>
+    <t>Non implementa un BCD</t>
+  </si>
+  <si>
     <t>Create a pulse generator that outputs a single pulse every N clock cycles</t>
   </si>
   <si>
@@ -2070,6 +2076,9 @@
     <t>process(clk) begin if rising_edge(clk) then pulse &lt;= pulse + input; end if; end process;</t>
   </si>
   <si>
+    <t>Non implementa la logica richiesta</t>
+  </si>
+  <si>
     <t>Define a binary to BCD converter of (N/3)+1-digit with the signal binary_value (N-bit) as input and the signal BCD_value ((N/3)+1-digit) as output.</t>
   </si>
   <si>
@@ -2079,6 +2088,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity binary_to_bcd is Generic (N : natural := 8); Port ( Binary_Value : in STD_LOGIC_VECTOR (N-1 downto 0); BCD_Value : out STD_LOGIC_VECTOR ((N/3)+1-1 downto 0)); end binary_to_bcd; architecture Behavioral of binary_to_bcd is begin process (Binary_Value) variable temp : STD_LOGIC_VECTOR ((N/3)+1-1 downto 0); begin temp := Binary_Value; for i in 0 to N-1 loop temp(i) := temp(i) xor temp(i-1); end loop ; BCD_Value &lt;= temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non fa un convertitore BCD</t>
+  </si>
+  <si>
     <t>Define a dual-port RAM of K x L with the signals clock, write_enable, read_enable, write_address (log2K-bit), read_address (log2K-bit), and data_in (L-bit) as input and the signal data_out (L-bit) as output.</t>
   </si>
   <si>
@@ -2088,6 +2100,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity dual_port_ram is Generic ( K : natural := 8; L : natural := 8 ); Port ( Clock : in STD_LOGIC; Write_Enable : in STD_LOGIC; Read_Enable : in STD_LOGIC; Write_Address : in STD_LOGIC_VECTOR (log2K-1 downto 0); Read_Address : in STD_LOGIC_VECTOR (log2K-1 downto 0); Data_In : in STD_LOGIC_VECTOR (L-1 downto 0); Data_Out : out STD_LOGIC_VECTOR (L-1 downto 0)); end dual_port_ram; architecture Behavioral of dual_port_ram is begin process (Clock) variable temp : unsigned(K*L); begin if (rising_edge(Clock)) then temp := (others =&gt; '0'); elsif (Write_Enable = '1') then temp := temp + Data_In; end if ; Data_Out &lt;= temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non proprio una RAM dual port</t>
+  </si>
+  <si>
     <t>Generate a dual-port memory of K x L with the signals clock, write, address_w (log2K-bit), address_r (log2K-bit), and data_write (L-bit) as input and the signal data_read (L-bit) as output.</t>
   </si>
   <si>
@@ -2097,6 +2112,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity dual_port_memory is Generic ( K : natural := 8; L : natural := 8 ); Port ( Clock : in STD_LOGIC; Write : in STD_LOGIC; Address_W : in STD_LOGIC_VECTOR (log2K-1 downto 0); Address_R : in STD_LOGIC_VECTOR (log2K-1 downto 0); Data_Write : in STD_LOGIC_VECTOR (L-1 downto 0); Data_Read : out STD_LOGIC_VECTOR (L-1 downto 0)); end dual_port_memory; architecture Behavioral of dual_port_memory is begin process (Clock) variable temp : unsigned(K*L); begin if rising_edge(Clock) then temp := Address_W &amp; Data_Write; end if ; Data_Read &lt;= temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t xml:space="preserve">Non produce una RAM a doppia porta </t>
+  </si>
+  <si>
     <t>Create a 4-bit binary counter that increments on each clock pulse and resets asynchronously</t>
   </si>
   <si>
@@ -2106,6 +2124,9 @@
     <t>entity binary_counter is port (clk : in std_logic; rst : in std_logic; count : out std_logic_vector(3 downto 0)); end entity; architecture Behavioral of binary_counter is signal count_reg : std_logic_vector(3 downto 0) := (others =&gt; '0'); begin process (clk, rst) begin if rst = '1' then count_reg &lt;= (others =&gt; '0'); elsif rising_edge(clk) then count_reg &lt;= count + 1; end if; end process; count &lt;= count_reg; end architecture;</t>
   </si>
   <si>
+    <t>Non proprio unzionante al 100%, però asserve più o meno alla richiesta</t>
+  </si>
+  <si>
     <t>Define a finite impulse response filter of N-bit with the signals clock, reset, data_in (N-bit), and coefficients (M x N-bit) as input and the signal filtered_output (N-bit) as output.</t>
   </si>
   <si>
@@ -2115,6 +2136,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity FiniteImpulseResponseFilter is Generic ( N : natural := 8; M : natural := 8 ); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Coefficients : in STD_LOGIC_VECTOR (M*N-1 downto 0); Filtered_Output : out STD_LOGIC_VECTOR (N-1 downto 0)); end FiniteImpulseResponseFilter; architecture Behavioral of FiniteImpulseResponseFilter is signal temp : STD_LOGIC_VECTOR (N-1 downto 0); begin process (Clock, Reset) begin if (Reset = '1') then temp &lt;= (others =&gt; '0'); elsif (rising_edge(Clock)) then temp &lt;= temp(M-1 downto 0) &amp; Data_In; end if ; end process ; Filtered_Output &lt;= temp; end Behavioral;</t>
   </si>
   <si>
+    <t>Non implementa un filtro FIR</t>
+  </si>
+  <si>
     <t>Implement a basic clock gating circuit</t>
   </si>
   <si>
@@ -2124,6 +2148,9 @@
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then clock_out &lt;= '0'; elsif counter &lt; duty_cycle then clock_out &lt;= '1'; else clock_out &lt;= '0'; end if; counter &lt;= counter + 1; end if; end process;</t>
   </si>
   <si>
+    <t>Completamente altro</t>
+  </si>
+  <si>
     <t>Write a floating-point multiplier of N-bit with the signals A (N-bit) and B (N-bit) as input and the signal product (N-bit) as output.</t>
   </si>
   <si>
@@ -2133,6 +2160,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity FloatingPointMultiplier is Generic (N : natural := 8); Port (A : in STD_LOGIC_VECTOR (N-1 downto 0); B : in STD_LOGIC_VECTOR (N-1 downto 0); Product : out STD_LOGIC_VECTOR (N-1 downto 0)); end FloatingPointMultiplier; architecture Behavioral of FloatingPointMultiplier is begin Product &lt;= A * B; end Behavioral;</t>
   </si>
   <si>
+    <t>FPM, equivalenti</t>
+  </si>
+  <si>
     <t>Define a BCD to binary converter of (N/3)+1-digit with the signal BCD_value ((N/3)+1-digit) as input and the signal binary_value (N-bit) as output.</t>
   </si>
   <si>
@@ -2142,6 +2172,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity BCD_to_Binary is Generic (N : natural := 8); Port ( BCD_Value : in std_logic_vector((N/3)+1-1 downto 0); Binary_Value : out std_logic_vector(N-1 downto 0)); end BCD_to_Binary; architecture Behavioral of BCD_to_Binary is begin process (BCD_Value) variable temp : std_logic_vector((N/3)+1-1 downto 0); begin temp := BCD_Value; for i in 0 to N-1 loop temp(i) := temp(i) xor temp(i-1); end loop ; Binary_Value &lt;= temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un BCD-B</t>
+  </si>
+  <si>
     <t>Create a basic frequency meter</t>
   </si>
   <si>
@@ -2151,6 +2184,9 @@
     <t>process(clk) begin if rising_edge(clk) then if counter &lt; duty_cycle then frequency &lt;= '0'; elsif counter = duty_cycle then frequency &lt;= '1'; end if; counter &lt;= counter + 1; end if; end process;</t>
   </si>
   <si>
+    <t>Genera un segnale PWM</t>
+  </si>
+  <si>
     <t>Write a digital differentiator of N-bit with the signals clk and input_data (N-bit) as input and the signal differentiated_data (N-bit) as output.</t>
   </si>
   <si>
@@ -2160,6 +2196,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity Digital_Differentiator is Generic (N : natural := 8); Port ( Clk : in STD_LOGIC; Input_Data : in STD_LOGIC_VECTOR (N-1 downto 0); Differentiated_Data : out STD_LOGIC_VECTOR (N-1 downto 0)); end Digital_Differentiator; architecture Behavioral of Digital_Differentiator is begin process (Clk) variable temp : STD_LOGIC_VECTOR (N-1 downto 0); begin if rising_edge(Clk) then temp := Input_Data; Differentiated_Data &lt;= temp; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t xml:space="preserve">Non fa la differenziazione </t>
+  </si>
+  <si>
     <t>Define a digital integrator of N-bit with the signals clock, reset, and data_in (N-bit) as input and the signal integrated_output (N-bit) as output.</t>
   </si>
   <si>
@@ -2169,6 +2208,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity DigitalIntegrator is Generic ( N : natural := 8 ); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Integrated_Output : out STD_LOGIC_VECTOR (N-1 downto 0)); end DigitalIntegrator; architecture Behavioral of DigitalIntegrator is begin process (Clock, Reset) variable temp : unsigned(N-1 downto 0); begin if (Reset = '1') then temp := (others =&gt; '0'); elsif (rising_edge(Clock)) then temp := temp + Data_In; Integrated_Output &lt;= temp; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>E' un integratore</t>
+  </si>
+  <si>
     <t>Define a CRC generator of N-bit with the signals data_in (N-bit) and polynomial (M-bit) as input and the signal CRC_value (M-bit) as output.</t>
   </si>
   <si>
@@ -2178,6 +2220,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity crc_generator is Generic (N : natural := 8; M : natural := 8); Port ( Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Polynomial : in STD_LOGIC_VECTOR (M-1 downto 0); CRC_Value : out STD_LOGIC_VECTOR (M-1 downto 0)); end crc_generator; architecture Behavioral of crc_generator is begin process (Data_In, Polynomial) variable crc : unsigned(M-1 downto 0); begin for i in 0 to N-1 loop if (Data_In(i) = '1') then crc := crc + (unsigned(Polynomial) xor crc(i)) &amp; (unsigned(Polynomial) xor crc(i)); end if ; end loop ; CRC_Value &lt;= crc; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Tolte le problematiche di progettazione e piccoli errori, va bene</t>
+  </si>
+  <si>
     <t>Generate a priority encoder of 2^M-to-M with the signal requests (2^M-bit) as input and the signals encoded (M-bit) and valid as output.</t>
   </si>
   <si>
@@ -2187,6 +2232,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity PriorityEncoder is Generic ( M : natural := 2 ); Port ( Requests : in STD_LOGIC_VECTOR (2**M-1 downto 0); Encoded : out STD_LOGIC_VECTOR (M-1 downto 0); Valid : out STD_LOGIC ); end PriorityEncoder; architecture Behavioral of PriorityEncoder is begin process (Requests) variable temp : STD_LOGIC_VECTOR (2**M-1 downto 0); begin for i in 0 to M-1 loop if Requests(i) = '1' then Encoded(i) &lt;= '0'; Valid &lt;= '1'; elsif Requests(i) = '0' then Encoded(i) &lt;= '1'; Valid &lt;= '0'; elsif Requests(i) = '1' then Encoded(i) &lt;= '0'; Valid &lt;= '1'; elsif Requests(i) = '0' then Encoded(i) &lt;= '0'; Valid &lt;= '0'; elsif Requests(i) = '1' then Encoded(i) &lt;= '1'; Valid &lt;= '1'; elsif Requests(i) = '1' then Encoded(i) &lt;= '0'; Valid &lt;= '1'; elsif Requests(i) = '1' then Encoded(i) &lt;= '1'; Valid &lt;= '1'; elsif Requests(i) = '1' then Encoded(i) &lt;= '1'; Valid &lt;= '1'; elsif Requests(i) = '1' then Encoded(i) &lt;= '0'; Valid &lt;= '1'; elsif Requests(i) = '1' then Encoded(i) &lt;= '1'; Valid &lt;= '1'; elsif Requests(i) = '1' then Encoded(i) &lt;= '1'; Valid &lt;= '1';</t>
   </si>
   <si>
+    <t>Non è un encoder a priorità</t>
+  </si>
+  <si>
     <t>Define an unsigned divider of N-bit with the signals dividend (N-bit) and divisor (N-bit) as input and the signals quotient (N-bit) and remainder (N-bit) as output.</t>
   </si>
   <si>
@@ -2196,6 +2244,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; use IEEE.NUMERIC_STD.ALL; entity unsigned_divider is Generic ( N : natural := 8 ); Port ( Dividend : in STD_LOGIC_VECTOR (N-1 downto 0); Divisor : in STD_LOGIC_VECTOR (N-1 downto 0); Quotient : out STD_LOGIC_VECTOR (N-1 downto 0); Remainder : out STD_LOGIC_VECTOR (N-1 downto 0)); end unsigned_divider; architecture Behavioral of unsigned_divider is begin process (Dividend, Divisor) variable temp_quotient : unsigned(N-1 downto 0); variable temp_remainder : unsigned(N-1 downto 0); begin temp_quotient := (others =&gt; '0'); temp_remainder := (others =&gt; '0'); for i in 0 to N-1 loop if Dividend(i) = '1' then temp_quotient(i) := '0'; temp_remainder := temp_quotient(i) xor Divisor(i); end if ; end loop ; Quotient &lt;= temp_quotient; Remainder &lt;= temp_remainder; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Più o meno vanno bene</t>
+  </si>
+  <si>
     <t>Implement a basic I2C master controller</t>
   </si>
   <si>
@@ -2205,6 +2256,9 @@
     <t>process(clk) begin if rising_edge(clk) then case state is when IDLE =&gt; if start = '1' then state &lt;= START; when START =&gt; if stop = '1' then state &lt;= STOP; else state &lt;= DATA; end if; when DATA =&gt; if start = '1' then state &lt;= START; when STOP =&gt; if stop = '1' then state &lt;= STOP; else state &lt;= DATA; end if; when STOP =&gt; if start = '1' then state &lt;= IDLE; else state &lt;= START; end if; when IDLE =&gt; if stop = '1' then state &lt;= STOP; else state &lt;= IDLE; end if; when START =&gt; if stop = '1' then state &lt;= STOP; else state &lt;= DATA; end if; when DATA =&gt; if start = '1' then state &lt;= START; when STOP =&gt; if stop = '1' then state &lt;= STOP; else state &lt;= DATA; end if; when STOP =&gt; if start = '1' then state &lt;= IDLE; else state &lt;= DATA; end if; when IDLE =&gt; if stop = '1' then state &lt;= IDLE; else state &lt;= DATA; end if; when DATA =&gt; if start = '1' then state &lt;= START; else state &lt;= DATA; end if; when STOP =&gt; if start = '1' then state &lt;= STOP; else state &lt;= DATA; end if; when IDLE =&gt; if stop = '1' then state &lt;= IDLE; else state &lt;= DATA; end if; when START =&gt; if stop = '1' then state &lt;= START; else state &lt;= DATA; end if; when DATA =&gt; if start = '1' then state &lt;= DATA; else state &lt;= DATA; end if; when STOP =&gt; if start = '1' then state &lt;= STOP; else state &lt;= DATA; end if; when IDLE =&gt; if stop = '1' then state &lt;= IDLE; else state &lt;= DATA;</t>
   </si>
   <si>
+    <t>Vanno fatte correzioni, ma va bene</t>
+  </si>
+  <si>
     <t>Create a basic DDS (Direct Digital Synthesis) waveform generator</t>
   </si>
   <si>
@@ -2212,6 +2266,9 @@
   </si>
   <si>
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then dds_out &lt;= '0'; elsif dds_in = '1' then dds_out &lt;= '1'; end if; end if; end process;</t>
+  </si>
+  <si>
+    <t>Non è un DDS</t>
   </si>
   <si>
     <t>Write a comparator circuit of K-bit with the signals value1 (K-bit) and value2 (K-bit) as input and the signals greater, equal, and smaller as output.</t>
@@ -3008,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="G255" sqref="G255"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="G275" sqref="G275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9088,16 +9145,19 @@
       <c r="G256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B257" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C257" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -9109,18 +9169,21 @@
         <v>0.71083471386836228</v>
       </c>
       <c r="G257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H257" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B258" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C258" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -9134,16 +9197,19 @@
       <c r="G258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B259" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C259" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -9157,16 +9223,19 @@
       <c r="G259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B260" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C260" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -9180,16 +9249,19 @@
       <c r="G260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B261" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C261" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -9203,16 +9275,19 @@
       <c r="G261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7">
+      <c r="H261" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B262" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C262" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9226,16 +9301,19 @@
       <c r="G262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
+      <c r="H262" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B263" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C263" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9247,18 +9325,21 @@
         <v>0.94385216868156119</v>
       </c>
       <c r="G263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H263" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="B264" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="C264" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9272,16 +9353,19 @@
       <c r="G264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="H264" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="B265" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C265" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9295,16 +9379,19 @@
       <c r="G265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
+      <c r="H265" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="B266" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="C266" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9316,18 +9403,21 @@
         <v>0.53222133795214999</v>
       </c>
       <c r="G266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H266" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B267" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="C267" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9341,16 +9431,19 @@
       <c r="G267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="B268" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="C268" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9364,16 +9457,19 @@
       <c r="G268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="B269" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="C269" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9387,16 +9483,19 @@
       <c r="G269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="H269" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="B270" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="C270" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9408,18 +9507,21 @@
         <v>0.91635756770920795</v>
       </c>
       <c r="G270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H270" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="B271" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="C271" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9431,18 +9533,21 @@
         <v>0.56549891561799903</v>
       </c>
       <c r="G271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H271" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="B272" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="C272" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9456,16 +9561,19 @@
       <c r="G272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="B273" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="C273" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9477,18 +9585,21 @@
         <v>0.86868905042037026</v>
       </c>
       <c r="G273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H273" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="B274" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="C274" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9500,18 +9611,21 @@
         <v>0.41429475673122351</v>
       </c>
       <c r="G274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H274" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="B275" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="C275" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9525,16 +9639,19 @@
       <c r="G275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="B276" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="C276" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9549,15 +9666,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="B277" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="C277" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9572,15 +9689,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="B278" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="C278" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9595,15 +9712,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="B279" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="C279" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9618,15 +9735,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="B280" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="C280" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -9641,15 +9758,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="B281" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="C281" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -9664,15 +9781,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="B282" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="C282" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9687,15 +9804,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="B283" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="C283" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9710,15 +9827,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="B284" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="C284" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -9733,15 +9850,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="B285" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="C285" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -9756,15 +9873,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="B286" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="C286" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9779,15 +9896,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="B287" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="C287" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9802,15 +9919,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="B288" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="C288" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9827,13 +9944,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="B289" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="C289" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9850,13 +9967,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="B290" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="C290" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -9873,13 +9990,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="B291" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="C291" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -9896,13 +10013,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="B292" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="C292" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9919,13 +10036,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="B293" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="C293" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -9942,13 +10059,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="B294" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="C294" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9965,13 +10082,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="B295" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="C295" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9988,13 +10105,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="B296" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="C296" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10011,13 +10128,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="B297" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="C297" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -10034,13 +10151,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="B298" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="C298" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10057,13 +10174,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="B299" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="C299" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -10080,13 +10197,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="B300" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="C300" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10103,13 +10220,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="B301" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="C301" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10126,13 +10243,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="B302" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="C302" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10149,13 +10266,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="B303" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="C303" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10172,13 +10289,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="B304" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="C304" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10195,13 +10312,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="B305" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="C305" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -10218,13 +10335,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="B306" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="C306" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10241,13 +10358,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="B307" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="C307" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10264,13 +10381,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="B308" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="C308" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10287,13 +10404,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="B309" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
       <c r="C309" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10310,13 +10427,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
       <c r="B310" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="C310" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10333,13 +10450,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="B311" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="C311" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10356,13 +10473,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="B312" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="C312" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -10379,13 +10496,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="B313" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="C313" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10402,13 +10519,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="B314" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="C314" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10425,13 +10542,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="B315" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="C315" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10448,13 +10565,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="B316" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="C316" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10471,13 +10588,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="B317" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="C317" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -10494,13 +10611,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
       <c r="B318" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="C318" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10517,13 +10634,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="B319" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
       <c r="C319" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10540,13 +10657,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="B320" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="C320" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -10563,13 +10680,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="B321" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="C321" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10586,13 +10703,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
       <c r="B322" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="C322" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10609,13 +10726,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="B323" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
       <c r="C323" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -10632,13 +10749,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="B324" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="C324" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10655,13 +10772,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="B325" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="C325" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10678,13 +10795,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B326" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="C326" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -10701,13 +10818,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="B327" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="C327" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeT5_225.xlsx
+++ b/HE/W_in_progress/AnalisiCodeT5_225.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70019204-736E-4994-BB25-CCC01ADBB9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A676FA84-8D01-4507-9109-F4AFF7DE81CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="894">
   <si>
     <t>IN</t>
   </si>
@@ -2280,6 +2280,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity comparator is Generic(K : natural := 8); Port ( Value1 : in STD_LOGIC_VECTOR (K-1 downto 0); Value2 : in STD_LOGIC_VECTOR (K-1 downto 0); Greater : out STD_LOGIC; Equal : out STD_LOGIC; Lesser : out STD_LOGIC); end comparator; architecture Behavioral of comparator is begin process (Value1, Value2) variable temp : STD_LOGIC_VECTOR (K-1 downto 0); begin temp := Value1 xor Value2; Greater &lt;= temp(K-1 downto 0); Equal &lt;= temp(K-1 downto 0); Lesser &lt;= temp(K-1 downto 0); end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un copmparatore</t>
+  </si>
+  <si>
     <t>if rising edge of clk_i; when the case is other_st; set cathodes_dot signal to the concatenation of cathodes and the complement of dot signal</t>
   </si>
   <si>
@@ -2328,6 +2331,9 @@
     <t>component counter is port(clk: in std_logic; en: in std_logic; rst: in std_logic; count: out std_logic_vector(2 downto 0)); end component; signal i_sr_data : std_logic_vector(DATA_LEN - 1 downto 0); signal i_cmd_state : cmd_state;; signal i_sr_data : std_logic_vector(DATA_LEN - 1 downto 0);</t>
   </si>
   <si>
+    <t>Alla fine ha ripetuto la stessa cosa ma va bene</t>
+  </si>
+  <si>
     <t>define a constant CLK_DIV of type integer and initialize it to 100; Concatenate four strings and assign them to the signal 'prova'.</t>
   </si>
   <si>
@@ -2337,6 +2343,9 @@
     <t>constant CLK_DIV : integer := 100; prova &lt;= "00";</t>
   </si>
   <si>
+    <t>Non fa la concatenazione</t>
+  </si>
+  <si>
     <t>i_cs_re_tk is a signal of type std_logic used for something related to rising edge and timekeeping; define an output std_logic_vector of 8 bit called anodes</t>
   </si>
   <si>
@@ -2362,6 +2371,9 @@
   </si>
   <si>
     <t>reg_count_nxt &lt;= 0; initaddr := initaddr + 1;</t>
+  </si>
+  <si>
+    <t>L'idea c'è</t>
   </si>
   <si>
     <t>COUT_RCA gets assigned the N-1-th element from cout_int; d is a constant of type std_logic_vector of 7 bit initialized to '0100001'; define the signal TbClockB whose state changes after TbPeriodB when TbSimEnded is different from '1', otherwise it is '0'</t>
@@ -3065,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="G275" sqref="G275"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="I286" sqref="I286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9665,16 +9677,19 @@
       <c r="G276">
         <v>0</v>
       </c>
+      <c r="H276" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B277" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C277" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9686,18 +9701,18 @@
         <v>0.88955900558771361</v>
       </c>
       <c r="G277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B278" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C278" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9714,13 +9729,13 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B279" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C279" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9732,18 +9747,18 @@
         <v>0.92746468401486981</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B280" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C280" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -9755,18 +9770,18 @@
         <v>0.98901848441443285</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B281" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C281" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -9783,13 +9798,13 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B282" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C282" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9801,18 +9816,21 @@
         <v>0.8525346743337634</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H282" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B283" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C283" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9826,16 +9844,19 @@
       <c r="G283">
         <v>0</v>
       </c>
+      <c r="H283" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B284" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C284" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -9847,18 +9868,18 @@
         <v>0.99985185185185188</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B285" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C285" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -9870,18 +9891,18 @@
         <v>0.99679368333805929</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B286" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C286" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9893,18 +9914,21 @@
         <v>0.61342592592592593</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H286" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B287" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C287" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9921,13 +9945,13 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B288" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C288" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9944,13 +9968,13 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B289" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C289" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -9967,13 +9991,13 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B290" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C290" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -9990,13 +10014,13 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B291" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C291" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -10013,13 +10037,13 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B292" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C292" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -10036,13 +10060,13 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B293" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C293" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -10059,13 +10083,13 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B294" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C294" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -10082,13 +10106,13 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B295" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C295" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -10105,13 +10129,13 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B296" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C296" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10128,13 +10152,13 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B297" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C297" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -10151,13 +10175,13 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B298" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C298" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10174,13 +10198,13 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B299" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C299" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -10197,13 +10221,13 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B300" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C300" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10220,13 +10244,13 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B301" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C301" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10243,13 +10267,13 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B302" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C302" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10266,13 +10290,13 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B303" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C303" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10289,13 +10313,13 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B304" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C304" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10312,13 +10336,13 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B305" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C305" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -10335,13 +10359,13 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B306" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C306" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10358,13 +10382,13 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B307" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C307" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10381,13 +10405,13 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B308" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C308" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10404,13 +10428,13 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B309" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C309" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10427,13 +10451,13 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B310" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C310" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10450,13 +10474,13 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B311" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C311" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10473,13 +10497,13 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B312" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C312" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -10496,13 +10520,13 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B313" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C313" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10519,13 +10543,13 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B314" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C314" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10542,13 +10566,13 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B315" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C315" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10565,13 +10589,13 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B316" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C316" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10588,13 +10612,13 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B317" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C317" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -10611,13 +10635,13 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B318" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C318" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10634,13 +10658,13 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B319" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C319" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10657,13 +10681,13 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B320" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C320" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -10680,13 +10704,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="B321" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C321" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10703,13 +10727,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B322" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C322" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10726,13 +10750,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B323" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C323" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -10749,13 +10773,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B324" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C324" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10772,13 +10796,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B325" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C325" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10795,13 +10819,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B326" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C326" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -10818,13 +10842,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B327" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C327" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiCodeT5_225.xlsx
+++ b/HE/W_in_progress/AnalisiCodeT5_225.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A676FA84-8D01-4507-9109-F4AFF7DE81CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34BCF2DF-B0FD-49F5-88FD-CBAEF4D09407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="904">
   <si>
     <t>IN</t>
   </si>
@@ -2442,6 +2442,9 @@
     <t>stimulus: process begin wait for 100 ns; wait for 10 ns; a&lt;="00"; wait; wait; address(0)&lt;="0";; signal rst_n : std_logic := '1';</t>
   </si>
   <si>
+    <t>Qualche errore sintattico, però va bene</t>
+  </si>
+  <si>
     <t>unita_operativa is a component with X, Y as input std_logic_vectors of 8 bits, clock, reset as input std_logic signals, loadAQ, shift, loadM, sub, selM, selAQ, selF, count_in as input std_logic signals, count as output std_logic_vector of 3 bits, P as output std_logic_vector of 16 bits; set the first bit of signal_19 to signal_20; map signal done_o to the output port t_done</t>
   </si>
   <si>
@@ -2451,6 +2454,9 @@
     <t>component unita_operativa is port( X, Y: in std_logic_vector(7 downto 0); clock, reset: in std_logic; loadAQ, shift, loadM, sub, selM, selAQ, selF, count_in: in std_logic; count: out std_logic_vector(2 downto 0); P: out std_logic_vector(15 downto 0)); end component; signal done_o : std_logic;</t>
   </si>
   <si>
+    <t>Non fa l'ultima operazione</t>
+  </si>
+  <si>
     <t>right shift by 3 bits i_data_1_out and add the value of i_sck_cpy; ROM is a component with RST as input std_logic signal, ADDR as input std_logic_vector signal of 3 bit, DATA as output std_logic_vector signal of 32 bit</t>
   </si>
   <si>
@@ -2517,6 +2523,9 @@
     <t>clk_process : process begin TbClockA &lt;= '0'; count_nxt &lt;= count_reg when enable = '0' else 0 when count_reg = DIV - 1 else count_reg + 1;; component shift_register port (clk : in std_logic; rst : in std_logic; count_reg : in std_logic_vector(2 downto 0); enable : in std_logic; end component;;</t>
   </si>
   <si>
+    <t>Non genera il clock come richiesto</t>
+  </si>
+  <si>
     <t>map data_2_o to t_dac_val_2; if bits 21-14 of BAR signal are equal to hexadecimal '2B'; Use the select statement with GPIO_enable signal to determine whether to output data from GPIO_write signal or keep it high impedance (Z).Report an error message with failure severity if the output signal does not equal '0'</t>
   </si>
   <si>
@@ -2526,6 +2535,9 @@
     <t>data_2_o =&gt; t_dac_val_2; if bar(21 downto 14) = x"2B" then ; end if;; GPIO_enable &lt;= GPIO_write when '0', '1' when others;</t>
   </si>
   <si>
+    <t>Completamente sbagliato</t>
+  </si>
+  <si>
     <t>declare control as a std_logic_vector signal with 2 bit initialized to all '0'; reg_key_in is an input std_logic_vector of 80 bit</t>
   </si>
   <si>
@@ -2541,6 +2553,9 @@
     <t>signal ytemp : std_logic; if abc(18 downto 11) = x"5E" then ; end if;; anodes : out std_logic_vector(7 downto 0);</t>
   </si>
   <si>
+    <t>non digliara il segnale ytemp a 4 bit</t>
+  </si>
+  <si>
     <t>wait for 100 ns, set plaintext to hexadecimal value '0x0000000000000000', and user_key to hexadecimal value '0x00000000000000000000'; unita_controllo is a component with input std_logic signals q0, clock, reset, start and output std_logic signals count of 3 bits, loadM, count_in, loadAQ, en_shift, selM, selAQ, selF, subtract, stop_cu.; c is a constant of type std_logic_vector of 7 bit initialized to '1000110'</t>
   </si>
   <si>
@@ -2607,6 +2622,9 @@
     <t>if ghi(16 downto 9) = x"77" then ; end if; case w is when 'U' =&gt; w := 'X'; when 'X' =&gt; if w2 = '0' then w := 'X'; else w := 'X'; end if; end case;</t>
   </si>
   <si>
+    <t>Inefficiente ma va bene</t>
+  </si>
+  <si>
     <t>ROM_selector_onboard is an entity with clock_in as input std_logic signal, reset_in as input std_logic signal, addr_strobe_in as input std_logic signal, anodes_out as output std_logic_vector signal of 8 bit, cathodes_out as output std_logic_vector signal of 8 bit; temp_stop_cu ia s std_logic signal; define a signal of type std_logic initialized to 0 and called TbClockA</t>
   </si>
   <si>
@@ -2625,6 +2643,9 @@
     <t>entity ripple_carry is port( X, Y: in std_logic_vector(7 downto 0); c_in: in std_logic_vector(7 downto 0); c_out: out std_logic_vector(7 downto 0); Z: out std_logic_vector(7 downto 0)); end ripple_carry; with c.b_request_complete select c.a_request.be &lt;= c.sys_master_ctrl_out.be when '1', r.b_request.be when '0', X when others;</t>
   </si>
   <si>
+    <t>Non dichiara la libreria standard alla fine</t>
+  </si>
+  <si>
     <t>if i_start_counter is lesser to START_DLY minus 1, increase i_start_counter signal by 1, set t_start signal to low; using the selected signal assignment, the signal y is set to a0 when signal ciao is low, it is set to a1 when signal ciao is high, otherwise it is set to don't care</t>
   </si>
   <si>
@@ -2640,6 +2661,9 @@
     <t>clkena &lt;= '1' when clk2xen = 0 else '0'; signal round_key_temp: std_logic_vector(63 downto 0);; component sbox port (); end component;</t>
   </si>
   <si>
+    <t>Non equivalenti per quello che è stato richiesto</t>
+  </si>
+  <si>
     <t>t_stb is a signal of type std_logic; concatenate two 18-bit slices from reg_key_in and two 61-bit slices from reg_key_in, store the result in key_temp1</t>
   </si>
   <si>
@@ -2649,6 +2673,9 @@
     <t>signal t_stb : std_logic; key_temp1 &lt;= reg_key_in(18 downto 0);</t>
   </si>
   <si>
+    <t xml:space="preserve">Noin fa la concatenazione </t>
+  </si>
+  <si>
     <t>set signal result_sig as the XOR of input_x and input_y; i_sck_cpy is a signal of type std_logic; pl is an instance of perm_layer component with the signals data_out_temp2, data_out</t>
   </si>
   <si>
@@ -2707,6 +2734,9 @@
   </si>
   <si>
     <t>i_cs_re_tk &lt;= '1' when i_cs_cpy = '0' and i_cs = '1' else '0'; variable limit : integer range 0 to 255;;</t>
+  </si>
+  <si>
+    <t>Non fa l'inizializzazione come richiesto</t>
   </si>
   <si>
     <t>wait for 10 nanoseconds; cs_o is an output std_logic signal</t>
@@ -3077,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="I286" sqref="I286"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="H325" sqref="H325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9940,7 +9970,7 @@
         <v>0.9207444976675746</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9963,10 +9993,10 @@
         <v>0.73595387209442364</v>
       </c>
       <c r="G288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>787</v>
       </c>
@@ -9986,10 +10016,10 @@
         <v>0.91802796173657109</v>
       </c>
       <c r="G289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>790</v>
       </c>
@@ -10012,7 +10042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>792</v>
       </c>
@@ -10035,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>794</v>
       </c>
@@ -10055,10 +10085,10 @@
         <v>0.94878006391408132</v>
       </c>
       <c r="G292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>797</v>
       </c>
@@ -10078,10 +10108,10 @@
         <v>0.99610749193911696</v>
       </c>
       <c r="G293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>800</v>
       </c>
@@ -10101,18 +10131,21 @@
         <v>0.81583432485448759</v>
       </c>
       <c r="G294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H294" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B295" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C295" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -10126,16 +10159,19 @@
       <c r="G295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:7">
+      <c r="H295" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B296" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C296" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10147,18 +10183,18 @@
         <v>0.99999518411142041</v>
       </c>
       <c r="G296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B297" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C297" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -10173,15 +10209,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B298" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C298" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10193,18 +10229,18 @@
         <v>0.87427389227586383</v>
       </c>
       <c r="G298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B299" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C299" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -10219,15 +10255,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B300" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C300" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10239,18 +10275,21 @@
         <v>0.77209302325581408</v>
       </c>
       <c r="G300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H300" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B301" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C301" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10262,18 +10301,18 @@
         <v>0.99962434259954924</v>
       </c>
       <c r="G301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B302" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C302" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10285,18 +10324,18 @@
         <v>0.999996</v>
       </c>
       <c r="G302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B303" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C303" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10310,16 +10349,19 @@
       <c r="G303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="H303" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B304" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C304" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10333,16 +10375,19 @@
       <c r="G304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B305" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C305" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -10357,15 +10402,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B306" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C306" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10379,16 +10424,19 @@
       <c r="G306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="B307" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C307" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10400,18 +10448,18 @@
         <v>0.952978987738346</v>
       </c>
       <c r="G307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="B308" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C308" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10423,18 +10471,18 @@
         <v>0.98664022774046589</v>
       </c>
       <c r="G308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="B309" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C309" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10446,18 +10494,18 @@
         <v>0.99995890523547304</v>
       </c>
       <c r="G309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="B310" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C310" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -10472,15 +10520,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="B311" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="C311" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10492,18 +10540,18 @@
         <v>0.99998928326474623</v>
       </c>
       <c r="G311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="B312" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C312" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -10518,15 +10566,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="B313" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C313" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10538,18 +10586,18 @@
         <v>0.99993750000000003</v>
       </c>
       <c r="G313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="B314" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="C314" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10561,18 +10609,21 @@
         <v>0.75576340383299623</v>
       </c>
       <c r="G314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H314" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B315" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C315" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10584,18 +10635,18 @@
         <v>0.99999768518518517</v>
       </c>
       <c r="G315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="B316" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="C316" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10609,16 +10660,19 @@
       <c r="G316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="B317" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="C317" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -10633,15 +10687,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="B318" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="C318" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10655,16 +10709,19 @@
       <c r="G318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="B319" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="C319" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10678,16 +10735,19 @@
       <c r="G319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="B320" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="C320" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -10702,15 +10762,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="B321" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="C321" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10722,18 +10782,18 @@
         <v>0.99999833756146872</v>
       </c>
       <c r="G321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="B322" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="C322" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10745,18 +10805,18 @@
         <v>0.9924834523765006</v>
       </c>
       <c r="G322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="B323" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="C323" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -10768,18 +10828,18 @@
         <v>0.99728739672709366</v>
       </c>
       <c r="G323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="B324" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="C324" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10791,18 +10851,18 @@
         <v>0.99690437876548454</v>
       </c>
       <c r="G324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="B325" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="C325" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10814,18 +10874,18 @@
         <v>0.9999968246710359</v>
       </c>
       <c r="G325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="B326" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="C326" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -10839,16 +10899,19 @@
       <c r="G326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="B327" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="C327" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="D327">
         <v>1</v>
